--- a/8_NematodeResearch/Fig3_OutputTable/ImplicationResearch.xlsx
+++ b/8_NematodeResearch/Fig3_OutputTable/ImplicationResearch.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24701"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CMIP6\Program\6_DrawFigure\Fig3_OutputTable\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CMIP6\Program\8_NematodeResearch\Fig3_OutputTable\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92B2BF76-9AAD-47CB-94AE-7D1D1B121D93}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF007D18-1CFD-4B67-92C6-4B372252E5ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12900" yWindow="3585" windowWidth="38700" windowHeight="15435" tabRatio="498" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6324" yWindow="540" windowWidth="30084" windowHeight="15780" tabRatio="498" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Quantity" sheetId="1" r:id="rId1"/>
@@ -1066,37 +1066,37 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AA45"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="I3" sqref="I3:I44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.75" style="1" customWidth="1"/>
-    <col min="4" max="4" width="26.875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="32.375" style="1" customWidth="1"/>
-    <col min="6" max="9" width="8.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.125" style="1" customWidth="1"/>
-    <col min="12" max="12" width="11.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="10.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="9.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="7.875" style="1" customWidth="1"/>
-    <col min="19" max="19" width="9.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="10.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="9.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="26" width="12.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="7.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.77734375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="26.88671875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="32.33203125" style="1" customWidth="1"/>
+    <col min="6" max="9" width="8.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="11.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="9.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="7.88671875" style="1" customWidth="1"/>
+    <col min="19" max="19" width="9.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="10.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="9.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="26" width="12.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="7.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="28" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:27" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A1" s="34" t="s">
         <v>23</v>
       </c>
@@ -1141,7 +1141,7 @@
       <c r="Z1" s="39"/>
       <c r="AA1" s="12"/>
     </row>
-    <row r="2" spans="1:27" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:27" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A2" s="34"/>
       <c r="B2" s="34"/>
       <c r="C2" s="34"/>
@@ -1215,7 +1215,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A3" s="37" t="s">
         <v>20</v>
       </c>
@@ -1293,7 +1293,7 @@
         <v>462791.21875</v>
       </c>
     </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A4" s="37"/>
       <c r="B4" s="4" t="s">
         <v>19</v>
@@ -1369,7 +1369,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A5" s="37"/>
       <c r="B5" s="4" t="s">
         <v>13</v>
@@ -1445,7 +1445,7 @@
         <v>378390.90625</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A6" s="37"/>
       <c r="B6" s="4" t="s">
         <v>15</v>
@@ -1521,7 +1521,7 @@
         <v>272924.1875</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A7" s="37"/>
       <c r="B7" s="4" t="s">
         <v>14</v>
@@ -1597,7 +1597,7 @@
         <v>2106993.5</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A8" s="37" t="s">
         <v>22</v>
       </c>
@@ -1675,7 +1675,7 @@
         <v>440106.78125</v>
       </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A9" s="37"/>
       <c r="B9" s="4" t="s">
         <v>19</v>
@@ -1751,7 +1751,7 @@
         <v>27188.2734375</v>
       </c>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A10" s="37"/>
       <c r="B10" s="4" t="s">
         <v>21</v>
@@ -1825,7 +1825,7 @@
         <v>90405.5234375</v>
       </c>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A11" s="37" t="s">
         <v>52</v>
       </c>
@@ -1903,7 +1903,7 @@
         <v>729582.875</v>
       </c>
     </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A12" s="37"/>
       <c r="B12" s="4" t="s">
         <v>31</v>
@@ -1979,7 +1979,7 @@
         <v>10968.904296875</v>
       </c>
     </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A13" s="37"/>
       <c r="B13" s="4" t="s">
         <v>2</v>
@@ -2055,7 +2055,7 @@
         <v>219260.734375</v>
       </c>
     </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A14" s="37"/>
       <c r="B14" s="4" t="s">
         <v>4</v>
@@ -2121,7 +2121,7 @@
         <v>3.6401081085205078</v>
       </c>
     </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A15" s="37"/>
       <c r="B15" s="4" t="s">
         <v>32</v>
@@ -2197,7 +2197,7 @@
         <v>1140197.625</v>
       </c>
     </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A16" s="37"/>
       <c r="B16" s="4" t="s">
         <v>27</v>
@@ -2273,7 +2273,7 @@
         <v>26043176</v>
       </c>
     </row>
-    <row r="17" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A17" s="37" t="s">
         <v>63</v>
       </c>
@@ -2351,7 +2351,7 @@
         <v>388293.0625</v>
       </c>
     </row>
-    <row r="18" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A18" s="37"/>
       <c r="B18" s="4" t="s">
         <v>25</v>
@@ -2427,7 +2427,7 @@
         <v>4378.66796875</v>
       </c>
     </row>
-    <row r="19" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A19" s="37"/>
       <c r="B19" s="4" t="s">
         <v>11</v>
@@ -2503,7 +2503,7 @@
         <v>4572.6982421875</v>
       </c>
     </row>
-    <row r="20" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A20" s="37" t="s">
         <v>33</v>
       </c>
@@ -2581,7 +2581,7 @@
         <v>170140.21875</v>
       </c>
     </row>
-    <row r="21" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A21" s="37"/>
       <c r="B21" s="4" t="s">
         <v>11</v>
@@ -2657,7 +2657,7 @@
         <v>13659205</v>
       </c>
     </row>
-    <row r="22" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A22" s="37"/>
       <c r="B22" s="4" t="s">
         <v>27</v>
@@ -2733,7 +2733,7 @@
         <v>8713964</v>
       </c>
     </row>
-    <row r="23" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A23" s="37" t="s">
         <v>26</v>
       </c>
@@ -2809,7 +2809,7 @@
         <v>4177.75</v>
       </c>
     </row>
-    <row r="24" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A24" s="37"/>
       <c r="B24" s="4" t="s">
         <v>4</v>
@@ -2885,7 +2885,7 @@
         <v>39348.3203125</v>
       </c>
     </row>
-    <row r="25" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A25" s="37"/>
       <c r="B25" s="4" t="s">
         <v>27</v>
@@ -2961,7 +2961,7 @@
         <v>227.27523803710938</v>
       </c>
     </row>
-    <row r="26" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A26" s="37" t="s">
         <v>0</v>
       </c>
@@ -3039,7 +3039,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A27" s="37"/>
       <c r="B27" s="5" t="s">
         <v>3</v>
@@ -3115,7 +3115,7 @@
         <v>164042.53125</v>
       </c>
     </row>
-    <row r="28" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A28" s="37"/>
       <c r="B28" s="5" t="s">
         <v>5</v>
@@ -3191,7 +3191,7 @@
         <v>0.95847916603088379</v>
       </c>
     </row>
-    <row r="29" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A29" s="37"/>
       <c r="B29" s="5" t="s">
         <v>4</v>
@@ -3267,7 +3267,7 @@
         <v>1871.804443359375</v>
       </c>
     </row>
-    <row r="30" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A30" s="37"/>
       <c r="B30" s="5" t="s">
         <v>6</v>
@@ -3343,7 +3343,7 @@
         <v>76.810020446777344</v>
       </c>
     </row>
-    <row r="31" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A31" s="37"/>
       <c r="B31" s="5" t="s">
         <v>7</v>
@@ -3419,7 +3419,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A32" s="37" t="s">
         <v>28</v>
       </c>
@@ -3497,7 +3497,7 @@
         <v>466577.4375</v>
       </c>
     </row>
-    <row r="33" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A33" s="37"/>
       <c r="B33" s="4" t="s">
         <v>25</v>
@@ -3573,7 +3573,7 @@
         <v>1125246.375</v>
       </c>
     </row>
-    <row r="34" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A34" s="37"/>
       <c r="B34" s="4" t="s">
         <v>15</v>
@@ -3649,7 +3649,7 @@
         <v>1230902.375</v>
       </c>
     </row>
-    <row r="35" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A35" s="37" t="s">
         <v>9</v>
       </c>
@@ -3727,7 +3727,7 @@
         <v>107467.453125</v>
       </c>
     </row>
-    <row r="36" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A36" s="37"/>
       <c r="B36" s="5" t="s">
         <v>4</v>
@@ -3803,7 +3803,7 @@
         <v>3015.00244140625</v>
       </c>
     </row>
-    <row r="37" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A37" s="37"/>
       <c r="B37" s="5" t="s">
         <v>6</v>
@@ -3879,7 +3879,7 @@
         <v>0.14167498052120209</v>
       </c>
     </row>
-    <row r="38" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A38" s="37" t="s">
         <v>29</v>
       </c>
@@ -3957,7 +3957,7 @@
         <v>12814.388671875</v>
       </c>
     </row>
-    <row r="39" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A39" s="37"/>
       <c r="B39" s="4" t="s">
         <v>21</v>
@@ -4033,7 +4033,7 @@
         <v>926929.4375</v>
       </c>
     </row>
-    <row r="40" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A40" s="37"/>
       <c r="B40" s="4" t="s">
         <v>13</v>
@@ -4109,7 +4109,7 @@
         <v>81063.578125</v>
       </c>
     </row>
-    <row r="41" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A41" s="37"/>
       <c r="B41" s="4" t="s">
         <v>14</v>
@@ -4185,7 +4185,7 @@
         <v>1541052.75</v>
       </c>
     </row>
-    <row r="42" spans="1:26" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:26" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A42" s="6" t="s">
         <v>16</v>
       </c>
@@ -4263,7 +4263,7 @@
         <v>1704668.5</v>
       </c>
     </row>
-    <row r="43" spans="1:26" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:26" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A43" s="6" t="s">
         <v>17</v>
       </c>
@@ -4341,7 +4341,7 @@
         <v>7309691.5</v>
       </c>
     </row>
-    <row r="44" spans="1:26" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:26" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A44" s="6" t="s">
         <v>30</v>
       </c>
@@ -4419,7 +4419,7 @@
         <v>6243083</v>
       </c>
     </row>
-    <row r="45" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A45" s="3"/>
       <c r="B45" s="2"/>
       <c r="C45" s="3"/>
@@ -4471,24 +4471,24 @@
       <selection pane="bottomLeft" activeCell="M3" sqref="M3:M44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="30.375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="36.75" bestFit="1" customWidth="1"/>
-    <col min="6" max="13" width="8.125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="7.875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="36.77734375" bestFit="1" customWidth="1"/>
+    <col min="6" max="13" width="8.109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="7.88671875" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="10" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="7.875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="7.875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="7.625" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="11.75" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="7.88671875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="7.88671875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="11.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:27" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A1" s="34" t="s">
         <v>23</v>
       </c>
@@ -4533,7 +4533,7 @@
       <c r="Z1" s="39"/>
       <c r="AA1" s="14"/>
     </row>
-    <row r="2" spans="1:27" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:27" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A2" s="34"/>
       <c r="B2" s="34"/>
       <c r="C2" s="34"/>
@@ -4607,7 +4607,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A3" s="37" t="s">
         <v>20</v>
       </c>
@@ -4673,7 +4673,7 @@
         <v>8.2580424845218658E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A4" s="37"/>
       <c r="B4" s="4" t="s">
         <v>19</v>
@@ -4737,7 +4737,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A5" s="37"/>
       <c r="B5" s="4" t="s">
         <v>13</v>
@@ -4801,7 +4801,7 @@
         <v>6.752004474401474E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A6" s="37"/>
       <c r="B6" s="4" t="s">
         <v>15</v>
@@ -4865,7 +4865,7 @@
         <v>4.8700567334890366E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A7" s="37"/>
       <c r="B7" s="4" t="s">
         <v>14</v>
@@ -4929,7 +4929,7 @@
         <v>0.37597173452377319</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A8" s="37" t="s">
         <v>22</v>
       </c>
@@ -4995,7 +4995,7 @@
         <v>7.8532621264457703E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A9" s="37"/>
       <c r="B9" s="4" t="s">
         <v>19</v>
@@ -5059,7 +5059,7 @@
         <v>4.8514730297029018E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A10" s="37"/>
       <c r="B10" s="4" t="s">
         <v>21</v>
@@ -5123,7 +5123,7 @@
         <v>1.613195426762104E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A11" s="37" t="s">
         <v>52</v>
       </c>
@@ -5189,7 +5189,7 @@
         <v>0.13018670678138733</v>
       </c>
     </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A12" s="37"/>
       <c r="B12" s="4" t="s">
         <v>31</v>
@@ -5253,7 +5253,7 @@
         <v>1.9572903402149677E-3</v>
       </c>
     </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A13" s="37"/>
       <c r="B13" s="4" t="s">
         <v>2</v>
@@ -5317,7 +5317,7 @@
         <v>3.9124868810176849E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A14" s="37"/>
       <c r="B14" s="4" t="s">
         <v>4</v>
@@ -5381,7 +5381,7 @@
         <v>6.4954053868859774E-7</v>
       </c>
     </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A15" s="37"/>
       <c r="B15" s="4" t="s">
         <v>32</v>
@@ -5445,7 +5445,7 @@
         <v>0.20345677435398102</v>
       </c>
     </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A16" s="37"/>
       <c r="B16" s="4" t="s">
         <v>27</v>
@@ -5509,7 +5509,7 @@
         <v>4.6471419334411621</v>
       </c>
     </row>
-    <row r="17" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A17" s="37" t="s">
         <v>24</v>
       </c>
@@ -5575,7 +5575,7 @@
         <v>6.9286979734897614E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A18" s="37"/>
       <c r="B18" s="4" t="s">
         <v>25</v>
@@ -5639,7 +5639,7 @@
         <v>7.813291740603745E-4</v>
       </c>
     </row>
-    <row r="19" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A19" s="37"/>
       <c r="B19" s="4" t="s">
         <v>11</v>
@@ -5703,7 +5703,7 @@
         <v>8.159519056789577E-4</v>
       </c>
     </row>
-    <row r="20" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A20" s="37" t="s">
         <v>33</v>
       </c>
@@ -5769,7 +5769,7 @@
         <v>3.035980649292469E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A21" s="37"/>
       <c r="B21" s="4" t="s">
         <v>11</v>
@@ -5833,7 +5833,7 @@
         <v>2.437347412109375</v>
       </c>
     </row>
-    <row r="22" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A22" s="37"/>
       <c r="B22" s="4" t="s">
         <v>27</v>
@@ -5897,7 +5897,7 @@
         <v>1.5549188852310181</v>
       </c>
     </row>
-    <row r="23" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A23" s="37" t="s">
         <v>26</v>
       </c>
@@ -5963,7 +5963,7 @@
         <v>7.4547732947394252E-4</v>
       </c>
     </row>
-    <row r="24" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A24" s="37"/>
       <c r="B24" s="4" t="s">
         <v>4</v>
@@ -6027,7 +6027,7 @@
         <v>7.0213107392191887E-3</v>
       </c>
     </row>
-    <row r="25" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A25" s="37"/>
       <c r="B25" s="4" t="s">
         <v>27</v>
@@ -6091,7 +6091,7 @@
         <v>4.0554972656536847E-5</v>
       </c>
     </row>
-    <row r="26" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A26" s="37" t="s">
         <v>0</v>
       </c>
@@ -6157,7 +6157,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A27" s="37"/>
       <c r="B27" s="5" t="s">
         <v>3</v>
@@ -6221,7 +6221,7 @@
         <v>2.9271736741065979E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A28" s="37"/>
       <c r="B28" s="5" t="s">
         <v>5</v>
@@ -6285,7 +6285,7 @@
         <v>1.7103093341575004E-7</v>
       </c>
     </row>
-    <row r="29" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A29" s="37"/>
       <c r="B29" s="5" t="s">
         <v>4</v>
@@ -6349,7 +6349,7 @@
         <v>3.3400463871657848E-4</v>
       </c>
     </row>
-    <row r="30" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A30" s="37"/>
       <c r="B30" s="5" t="s">
         <v>6</v>
@@ -6413,7 +6413,7 @@
         <v>1.370597328786971E-5</v>
       </c>
     </row>
-    <row r="31" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A31" s="37"/>
       <c r="B31" s="5" t="s">
         <v>7</v>
@@ -6477,7 +6477,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A32" s="37" t="s">
         <v>28</v>
       </c>
@@ -6543,7 +6543,7 @@
         <v>8.3256036043167114E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A33" s="37"/>
       <c r="B33" s="4" t="s">
         <v>25</v>
@@ -6607,7 +6607,7 @@
         <v>0.20078885555267334</v>
       </c>
     </row>
-    <row r="34" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A34" s="37"/>
       <c r="B34" s="4" t="s">
         <v>15</v>
@@ -6671,7 +6671,7 @@
         <v>0.21964211761951447</v>
       </c>
     </row>
-    <row r="35" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A35" s="37" t="s">
         <v>9</v>
       </c>
@@ -6737,7 +6737,7 @@
         <v>1.9176483154296875E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A36" s="37"/>
       <c r="B36" s="5" t="s">
         <v>4</v>
@@ -6801,7 +6801,7 @@
         <v>5.3799676243215799E-4</v>
       </c>
     </row>
-    <row r="37" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A37" s="37"/>
       <c r="B37" s="5" t="s">
         <v>6</v>
@@ -6865,7 +6865,7 @@
         <v>2.528047282623902E-8</v>
       </c>
     </row>
-    <row r="38" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A38" s="37" t="s">
         <v>29</v>
       </c>
@@ -6931,7 +6931,7 @@
         <v>2.286598552018404E-3</v>
       </c>
     </row>
-    <row r="39" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A39" s="37"/>
       <c r="B39" s="4" t="s">
         <v>21</v>
@@ -6995,7 +6995,7 @@
         <v>0.16540122032165527</v>
       </c>
     </row>
-    <row r="40" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A40" s="37"/>
       <c r="B40" s="4" t="s">
         <v>13</v>
@@ -7059,7 +7059,7 @@
         <v>1.4464978128671646E-2</v>
       </c>
     </row>
-    <row r="41" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A41" s="37"/>
       <c r="B41" s="4" t="s">
         <v>14</v>
@@ -7123,7 +7123,7 @@
         <v>0.27498534321784973</v>
       </c>
     </row>
-    <row r="42" spans="1:26" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:26" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A42" s="6" t="s">
         <v>16</v>
       </c>
@@ -7189,7 +7189,7 @@
         <v>0.30418089032173157</v>
       </c>
     </row>
-    <row r="43" spans="1:26" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:26" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A43" s="6" t="s">
         <v>17</v>
       </c>
@@ -7255,7 +7255,7 @@
         <v>1.3043407201766968</v>
       </c>
     </row>
-    <row r="44" spans="1:26" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:26" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A44" s="6" t="s">
         <v>30</v>
       </c>
@@ -7321,7 +7321,7 @@
         <v>1.1140152215957642</v>
       </c>
     </row>
-    <row r="45" spans="1:26" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:26" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A45" s="15" t="s">
         <v>62</v>
       </c>
@@ -7439,21 +7439,21 @@
       <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.5" customWidth="1"/>
-    <col min="2" max="2" width="9.625" customWidth="1"/>
-    <col min="3" max="3" width="8.375" customWidth="1"/>
-    <col min="4" max="4" width="11.5" customWidth="1"/>
-    <col min="5" max="5" width="11.75" customWidth="1"/>
-    <col min="6" max="6" width="11.875" customWidth="1"/>
-    <col min="7" max="7" width="10.75" customWidth="1"/>
-    <col min="8" max="8" width="10.125" customWidth="1"/>
-    <col min="9" max="9" width="13.75" customWidth="1"/>
-    <col min="10" max="10" width="12.125" customWidth="1"/>
+    <col min="1" max="1" width="20.44140625" customWidth="1"/>
+    <col min="2" max="2" width="9.6640625" customWidth="1"/>
+    <col min="3" max="3" width="8.33203125" customWidth="1"/>
+    <col min="4" max="4" width="11.44140625" customWidth="1"/>
+    <col min="5" max="5" width="11.77734375" customWidth="1"/>
+    <col min="6" max="6" width="11.88671875" customWidth="1"/>
+    <col min="7" max="7" width="10.77734375" customWidth="1"/>
+    <col min="8" max="8" width="10.109375" customWidth="1"/>
+    <col min="9" max="9" width="13.77734375" customWidth="1"/>
+    <col min="10" max="10" width="12.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="43" t="s">
         <v>69</v>
       </c>
@@ -7485,7 +7485,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="43"/>
       <c r="B2" s="43"/>
       <c r="C2" s="45"/>
@@ -7497,21 +7497,21 @@
       <c r="I2" s="43"/>
       <c r="J2" s="43"/>
     </row>
-    <row r="3" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>64</v>
       </c>
       <c r="B3" s="23">
-        <v>0.48936319344248652</v>
+        <v>0.57906666562369213</v>
       </c>
       <c r="C3" s="23">
         <v>0.39798823518115861</v>
       </c>
       <c r="D3" s="23">
-        <v>0.49321173995998008</v>
+        <v>0.59879231986078274</v>
       </c>
       <c r="E3" s="23">
-        <v>0.54899067554089231</v>
+        <v>0.50965004912838474</v>
       </c>
       <c r="F3" s="18">
         <f>AVERAGE(Quantity!E3:E7)/1000000</f>
@@ -7534,21 +7534,21 @@
         <v>5.8644351394517722</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>65</v>
       </c>
       <c r="B4" s="23">
-        <v>0.43660843511684438</v>
+        <v>0.5624877839079514</v>
       </c>
       <c r="C4" s="23">
         <v>0.48959610583184565</v>
       </c>
       <c r="D4" s="23">
-        <v>0.35846909471368837</v>
+        <v>0.46719802504820346</v>
       </c>
       <c r="E4" s="23">
-        <v>0.57158084234682471</v>
+        <v>0.5484520004814587</v>
       </c>
       <c r="F4" s="18">
         <f>AVERAGE(Quantity!E8:E10)/1000000</f>
@@ -7571,21 +7571,21 @@
         <v>1.1944081454229354</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>66</v>
       </c>
       <c r="B5" s="23">
-        <v>0.54041720452069786</v>
+        <v>0.66026253390762502</v>
       </c>
       <c r="C5" s="23">
         <v>0.43658499103830212</v>
       </c>
       <c r="D5" s="23">
-        <v>0.67444873247118409</v>
+        <v>0.76004175701014332</v>
       </c>
       <c r="E5" s="23">
-        <v>0.52486251324616717</v>
+        <v>0.50187317514876928</v>
       </c>
       <c r="F5" s="18">
         <f>AVERAGE(Quantity!E11:E16)/1000000</f>
@@ -7608,21 +7608,21 @@
         <v>195.68046508755137</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>24</v>
       </c>
       <c r="B6" s="23">
-        <v>0.56538496661618032</v>
+        <v>0.64116428570083261</v>
       </c>
       <c r="C6" s="23">
         <v>0.27348571709245034</v>
       </c>
       <c r="D6" s="23">
-        <v>0.5756206844939159</v>
+        <v>0.71619071447647531</v>
       </c>
       <c r="E6" s="23">
-        <v>0.72560098219032565</v>
+        <v>0.64435693947019901</v>
       </c>
       <c r="F6" s="18">
         <f>AVERAGE(Quantity!E17:E19)/1000000</f>
@@ -7645,21 +7645,21 @@
         <v>0.47764829856872559</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>33</v>
       </c>
       <c r="B7" s="23">
-        <v>0.53719826157916639</v>
+        <v>0.70513794416709596</v>
       </c>
       <c r="C7" s="23">
         <v>0.57466206532138531</v>
       </c>
       <c r="D7" s="23">
-        <v>0.63622428149059151</v>
+        <v>0.71784860769163272</v>
       </c>
       <c r="E7" s="23">
-        <v>0.56163272603237657</v>
+        <v>0.49669176469427828</v>
       </c>
       <c r="F7" s="18">
         <f>AVERAGE(Quantity!E20:E22)/1000000</f>
@@ -7682,21 +7682,21 @@
         <v>81.356794358085153</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>26</v>
       </c>
       <c r="B8" s="23">
-        <v>0.63254252367722863</v>
+        <v>0.68222808959483494</v>
       </c>
       <c r="C8" s="23">
         <v>0.38786450836194214</v>
       </c>
       <c r="D8" s="23">
-        <v>0.71366761228411557</v>
+        <v>0.75408795216089508</v>
       </c>
       <c r="E8" s="23">
-        <v>0.61534802308578485</v>
+        <v>0.57239584394565757</v>
       </c>
       <c r="F8" s="18">
         <f>AVERAGE(Quantity!E23:E25)/1000000</f>
@@ -7719,21 +7719,21 @@
         <v>7.0277462593269346</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>67</v>
       </c>
       <c r="B9" s="23">
-        <v>0.70900732731283156</v>
+        <v>0.72417667960542442</v>
       </c>
       <c r="C9" s="23">
         <v>0.40014461369906262</v>
       </c>
       <c r="D9" s="23">
-        <v>0.72382200350555304</v>
+        <v>0.76957045533387358</v>
       </c>
       <c r="E9" s="23">
-        <v>0.57074134715344083</v>
+        <v>0.59561946967902701</v>
       </c>
       <c r="F9" s="18">
         <f>AVERAGE(Quantity!E26:E31)/1000000</f>
@@ -7756,21 +7756,21 @@
         <v>27.418420143942118</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>28</v>
       </c>
       <c r="B10" s="23">
-        <v>0.39271038158386101</v>
+        <v>0.62805731765576578</v>
       </c>
       <c r="C10" s="23">
         <v>0.6080024215211739</v>
       </c>
       <c r="D10" s="23">
-        <v>0.41231899526225452</v>
+        <v>0.58835747202645983</v>
       </c>
       <c r="E10" s="23">
-        <v>0.44174796425746043</v>
+        <v>0.42285508092155899</v>
       </c>
       <c r="F10" s="18">
         <f>AVERAGE(Quantity!E32:E34)/1000000</f>
@@ -7793,21 +7793,21 @@
         <v>5.0022485754746198</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>9</v>
       </c>
       <c r="B11" s="24">
-        <v>0.73699577253492277</v>
+        <v>0.77339833708348693</v>
       </c>
       <c r="C11" s="23">
         <v>0.46299853104049715</v>
       </c>
       <c r="D11" s="23">
-        <v>0.44275572633807692</v>
+        <v>0.55526028809016015</v>
       </c>
       <c r="E11" s="23">
-        <v>0.91370642601676599</v>
+        <v>0.78119317715316605</v>
       </c>
       <c r="F11" s="18">
         <f>AVERAGE(Quantity!E35:E37)/1000000</f>
@@ -7830,21 +7830,21 @@
         <v>3.0969005060148089</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>29</v>
       </c>
       <c r="B12" s="23">
-        <v>0.39813731229394345</v>
+        <v>0.46168128674956871</v>
       </c>
       <c r="C12" s="23">
         <v>0.32868707456665258</v>
       </c>
       <c r="D12" s="23">
-        <v>0.41777340337511065</v>
+        <v>0.49942728968253131</v>
       </c>
       <c r="E12" s="23">
-        <v>0.53035825613502163</v>
+        <v>0.49579835866436583</v>
       </c>
       <c r="F12" s="18">
         <f>AVERAGE(Quantity!E38:E41)/1000000</f>
@@ -7867,21 +7867,21 @@
         <v>4.7058491541137695</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>16</v>
       </c>
       <c r="B13" s="23">
-        <v>0.79281963303869873</v>
+        <v>0.77936675362091923</v>
       </c>
       <c r="C13" s="23">
         <v>0.82574883583409286</v>
       </c>
       <c r="D13" s="23">
-        <v>0.23947937494550975</v>
+        <v>0.35484083980043629</v>
       </c>
       <c r="E13" s="23">
-        <v>0.99007016624843203</v>
+        <v>0.7412853739149271</v>
       </c>
       <c r="F13" s="18">
         <f>AVERAGE(Quantity!E42)/1000000</f>
@@ -7904,21 +7904,21 @@
         <v>4.6111592099609373</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>68</v>
       </c>
       <c r="B14" s="23">
-        <v>0.58286165378845278</v>
+        <v>0.60852156214850739</v>
       </c>
       <c r="C14" s="23">
         <v>0.43147778565804651</v>
       </c>
       <c r="D14" s="23">
-        <v>0.66117642025419021</v>
+        <v>0.67404795076261648</v>
       </c>
       <c r="E14" s="23">
-        <v>0.58211743798008575</v>
+        <v>0.52576553451981967</v>
       </c>
       <c r="F14" s="18">
         <f>AVERAGE(Quantity!E43)/1000000</f>
@@ -7941,21 +7941,21 @@
         <v>50.8647247265625</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>30</v>
       </c>
       <c r="B15" s="23">
-        <v>0.75558297020334408</v>
+        <v>0.84149376012308919</v>
       </c>
       <c r="C15" s="23">
         <v>0.63425409853775072</v>
       </c>
       <c r="D15" s="23">
-        <v>0.75240082827869603</v>
+        <v>0.71576906688516451</v>
       </c>
       <c r="E15" s="23">
-        <v>0.67512724076437414</v>
+        <v>0.65567504371382967</v>
       </c>
       <c r="F15" s="18">
         <f>AVERAGE(Quantity!E44)/1000000</f>
@@ -7978,7 +7978,7 @@
         <v>12.517165715270997</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="19"/>
       <c r="B16" s="19"/>
       <c r="C16" s="19"/>
@@ -7990,7 +7990,7 @@
       <c r="I16" s="19"/>
       <c r="J16" s="19"/>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>73</v>
       </c>
@@ -8040,34 +8040,34 @@
       <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.625" style="25" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.6640625" style="25" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12" style="25" customWidth="1"/>
-    <col min="3" max="3" width="11.75" style="25" customWidth="1"/>
-    <col min="4" max="4" width="13.375" style="25" customWidth="1"/>
-    <col min="5" max="5" width="13.125" style="25" customWidth="1"/>
-    <col min="6" max="6" width="12.5" customWidth="1"/>
-    <col min="7" max="7" width="7.875" customWidth="1"/>
-    <col min="8" max="8" width="7.375" customWidth="1"/>
-    <col min="9" max="9" width="7.125" customWidth="1"/>
-    <col min="10" max="10" width="7.25" customWidth="1"/>
-    <col min="11" max="11" width="7.625" customWidth="1"/>
-    <col min="12" max="14" width="8.125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="6.5" customWidth="1"/>
-    <col min="16" max="16" width="9.5" customWidth="1"/>
-    <col min="17" max="17" width="6.25" customWidth="1"/>
-    <col min="18" max="18" width="6.375" customWidth="1"/>
-    <col min="19" max="19" width="6.875" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="6.625" customWidth="1"/>
+    <col min="3" max="3" width="11.77734375" style="25" customWidth="1"/>
+    <col min="4" max="4" width="13.33203125" style="25" customWidth="1"/>
+    <col min="5" max="5" width="13.109375" style="25" customWidth="1"/>
+    <col min="6" max="6" width="12.44140625" customWidth="1"/>
+    <col min="7" max="7" width="7.88671875" customWidth="1"/>
+    <col min="8" max="8" width="7.33203125" customWidth="1"/>
+    <col min="9" max="9" width="7.109375" customWidth="1"/>
+    <col min="10" max="10" width="7.21875" customWidth="1"/>
+    <col min="11" max="11" width="7.6640625" customWidth="1"/>
+    <col min="12" max="14" width="8.109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="6.44140625" customWidth="1"/>
+    <col min="16" max="16" width="9.44140625" customWidth="1"/>
+    <col min="17" max="17" width="6.21875" customWidth="1"/>
+    <col min="18" max="18" width="6.33203125" customWidth="1"/>
+    <col min="19" max="19" width="6.88671875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="6.6640625" customWidth="1"/>
     <col min="21" max="21" width="11" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="12.125" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="12.109375" bestFit="1" customWidth="1"/>
     <col min="24" max="25" width="11" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="13.125" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="12.125" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="12.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" s="28" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:27" s="28" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="44" t="s">
         <v>75</v>
       </c>
@@ -8116,7 +8116,7 @@
       <c r="Z1" s="46"/>
       <c r="AA1" s="46"/>
     </row>
-    <row r="2" spans="1:27" s="28" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:27" s="28" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="45"/>
       <c r="B2" s="45"/>
       <c r="C2" s="45"/>
@@ -8187,21 +8187,21 @@
         <v>50</v>
       </c>
     </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>12</v>
       </c>
       <c r="B3" s="31">
-        <v>0.52292495593916266</v>
+        <v>0.58221417309866852</v>
       </c>
       <c r="C3" s="31">
         <v>0.22884295223254011</v>
       </c>
       <c r="D3" s="31">
-        <v>0.65505925219232886</v>
+        <v>0.74752116940439539</v>
       </c>
       <c r="E3" s="31">
-        <v>0.62466632961442248</v>
+        <v>0.57090733142525829</v>
       </c>
       <c r="F3" s="29">
         <f>AVERAGE(Quantity!E3,Quantity!E17,Quantity!E20,Quantity!E32)/1000000</f>
@@ -8292,21 +8292,21 @@
         <v>1487801.9375</v>
       </c>
     </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>10</v>
       </c>
       <c r="B4" s="31">
-        <v>0.4799080334532011</v>
+        <v>0.59273788052948739</v>
       </c>
       <c r="C4" s="31">
         <v>0.34051063863127851</v>
       </c>
       <c r="D4" s="31">
-        <v>0.98789726983357318</v>
+        <v>0.98758424453734184</v>
       </c>
       <c r="E4" s="31">
-        <v>0.1552647731965153</v>
+        <v>0.38614074981625368</v>
       </c>
       <c r="F4" s="29">
         <f>AVERAGE(Quantity!E11)/1000000</f>
@@ -8397,21 +8397,21 @@
         <v>729582.875</v>
       </c>
     </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>31</v>
       </c>
       <c r="B5" s="31">
-        <v>0.69657522579976294</v>
+        <v>0.74512769053334638</v>
       </c>
       <c r="C5" s="31">
         <v>0.36919825152140179</v>
       </c>
       <c r="D5" s="31">
-        <v>0.51945701727484683</v>
+        <v>0.77455401056340933</v>
       </c>
       <c r="E5" s="31">
-        <v>0.44195854508038052</v>
+        <v>0.64635040480498007</v>
       </c>
       <c r="F5" s="29">
         <f>AVERAGE(Quantity!E12)/1000000</f>
@@ -8502,21 +8502,21 @@
         <v>10968.904296875</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B6" s="31">
-        <v>0.70876338687327101</v>
+        <v>0.6697315924828251</v>
       </c>
       <c r="C6" s="32">
         <v>0.33620475412007167</v>
       </c>
       <c r="D6" s="32">
-        <v>0.79083871381145443</v>
+        <v>0.81535667949402579</v>
       </c>
       <c r="E6" s="32">
-        <v>0.55494704344977575</v>
+        <v>0.51119538093659789</v>
       </c>
       <c r="F6" s="29">
         <f>AVERAGE(Quantity!E26)/1000000</f>
@@ -8607,21 +8607,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>2</v>
       </c>
       <c r="B7" s="31">
-        <v>0.72881291154048256</v>
+        <v>0.73900728024894402</v>
       </c>
       <c r="C7" s="31">
         <v>0.63958703001255446</v>
       </c>
       <c r="D7" s="31">
-        <v>0.44046085487385511</v>
+        <v>0.50388900060111941</v>
       </c>
       <c r="E7" s="31">
-        <v>0.84172341667226747</v>
+        <v>0.69021893651693156</v>
       </c>
       <c r="F7" s="29">
         <f>AVERAGE(Quantity!E8,Quantity!E23,Quantity!E35,Quantity!E42:E44,Quantity!E27,Quantity!E13)/1000000</f>
@@ -8712,21 +8712,21 @@
         <v>16192498.25</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>27</v>
       </c>
       <c r="B8" s="31">
-        <v>0.42601503348944814</v>
+        <v>0.6408974004946506</v>
       </c>
       <c r="C8" s="31">
         <v>0.47315191006398744</v>
       </c>
       <c r="D8" s="31">
-        <v>0.81147173344757317</v>
+        <v>0.87279252195043211</v>
       </c>
       <c r="E8" s="31">
-        <v>0.3498881797971819</v>
+        <v>0.3582921278159224</v>
       </c>
       <c r="F8" s="29">
         <f>AVERAGE(Quantity!E16,Quantity!E25,Quantity!E22)/1000000</f>
@@ -8817,21 +8817,21 @@
         <v>34757367.275238037</v>
       </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>25</v>
       </c>
       <c r="B9" s="31">
-        <v>0.40596321714972727</v>
+        <v>0.70807451617100181</v>
       </c>
       <c r="C9" s="31">
         <v>0.70597364858146872</v>
       </c>
       <c r="D9" s="31">
-        <v>0.49652837805761002</v>
+        <v>0.67896355322450996</v>
       </c>
       <c r="E9" s="31">
-        <v>0.35305628562848179</v>
+        <v>0.35190358944105132</v>
       </c>
       <c r="F9" s="29">
         <f>AVERAGE(Quantity!E18,Quantity!E33)/1000000</f>
@@ -8922,21 +8922,21 @@
         <v>1129625.04296875</v>
       </c>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>19</v>
       </c>
       <c r="B10" s="31">
-        <v>0.28602140520951697</v>
+        <v>0.38481484026329171</v>
       </c>
       <c r="C10" s="31">
         <v>0.31417067335918125</v>
       </c>
       <c r="D10" s="31">
-        <v>0.2833142144924406</v>
+        <v>0.42328826195359814</v>
       </c>
       <c r="E10" s="31">
-        <v>0.48211198277258416</v>
+        <v>0.45963876957449989</v>
       </c>
       <c r="F10" s="29">
         <f>AVERAGE(Quantity!E4,Quantity!E9,Quantity!E38)/1000000</f>
@@ -9027,21 +9027,21 @@
         <v>40002.662109375</v>
       </c>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>21</v>
       </c>
       <c r="B11" s="31">
-        <v>0.77797425711288692</v>
+        <v>0.7678510283823935</v>
       </c>
       <c r="C11" s="31">
         <v>0.54076625761173303</v>
       </c>
       <c r="D11" s="31">
-        <v>0.64797178648981046</v>
+        <v>0.60685923606839054</v>
       </c>
       <c r="E11" s="31">
-        <v>0.68479355455727364</v>
+        <v>0.61400248996186058</v>
       </c>
       <c r="F11" s="29">
         <f>AVERAGE(Quantity!E39,Quantity!E10)/1000000</f>
@@ -9132,21 +9132,21 @@
         <v>1017334.9609375</v>
       </c>
     </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>5</v>
       </c>
       <c r="B12" s="31">
-        <v>0.43902366995375419</v>
+        <v>0.53590152913243583</v>
       </c>
       <c r="C12" s="32">
         <v>0.36321440197199711</v>
       </c>
       <c r="D12" s="32">
-        <v>0.75920255512758983</v>
+        <v>0.8506262441547322</v>
       </c>
       <c r="E12" s="32">
-        <v>0.11184807578146047</v>
+        <v>0.29310444915664996</v>
       </c>
       <c r="F12" s="29">
         <f>AVERAGE(Quantity!E28)/1000000</f>
@@ -9237,21 +9237,21 @@
         <v>0.95847916603088379</v>
       </c>
     </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>4</v>
       </c>
       <c r="B13" s="31">
-        <v>0.6672567865139688</v>
+        <v>0.70842810879529972</v>
       </c>
       <c r="C13" s="31">
         <v>0.39717650031152907</v>
       </c>
       <c r="D13" s="31">
-        <v>0.71224922196787177</v>
+        <v>0.74890188801360491</v>
       </c>
       <c r="E13" s="31">
-        <v>0.64245770803166813</v>
+        <v>0.59997699583158381</v>
       </c>
       <c r="F13" s="29">
         <f>AVERAGE(Quantity!E24,Quantity!E29,Quantity!E36,Quantity!E14)/1000000</f>
@@ -9342,21 +9342,21 @@
         <v>44238.767305374146</v>
       </c>
     </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>32</v>
       </c>
       <c r="B14" s="31">
-        <v>0.7104978797775916</v>
+        <v>0.76719880592603662</v>
       </c>
       <c r="C14" s="31">
         <v>0.42475044113715393</v>
       </c>
       <c r="D14" s="31">
-        <v>0.75452180101105493</v>
+        <v>0.86654085389057012</v>
       </c>
       <c r="E14" s="31">
-        <v>0.597174441287602</v>
+        <v>0.56971046481750298</v>
       </c>
       <c r="F14" s="29">
         <f>AVERAGE(Quantity!E15)/1000000</f>
@@ -9447,21 +9447,21 @@
         <v>1140197.625</v>
       </c>
     </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>11</v>
       </c>
       <c r="B15" s="31">
-        <v>0.50802679603426126</v>
+        <v>0.7555458169560102</v>
       </c>
       <c r="C15" s="31">
         <v>0.63421162552653421</v>
       </c>
       <c r="D15" s="31">
-        <v>0.76661871703475293</v>
+        <v>0.83971115846212319</v>
       </c>
       <c r="E15" s="31">
-        <v>0.47742418391222052</v>
+        <v>0.42757146496343873</v>
       </c>
       <c r="F15" s="29">
         <f>AVERAGE(Quantity!E19,Quantity!E21)/1000000</f>
@@ -9552,21 +9552,21 @@
         <v>13663777.698242188</v>
       </c>
     </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
         <v>13</v>
       </c>
       <c r="B16" s="31">
-        <v>0.63430979704776391</v>
+        <v>0.68691528174674099</v>
       </c>
       <c r="C16" s="31">
         <v>0.48519512926921848</v>
       </c>
       <c r="D16" s="31">
-        <v>0.45214315075979311</v>
+        <v>0.53023399740749499</v>
       </c>
       <c r="E16" s="31">
-        <v>0.74933552994722485</v>
+        <v>0.62997182982057964</v>
       </c>
       <c r="F16" s="29">
         <f>AVERAGE(Quantity!E5,Quantity!E40)/1000000</f>
@@ -9657,21 +9657,21 @@
         <v>459454.484375</v>
       </c>
     </row>
-    <row r="17" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>6</v>
       </c>
       <c r="B17" s="31">
-        <v>0.60193668423019209</v>
+        <v>0.65874868968846301</v>
       </c>
       <c r="C17" s="32">
         <v>0.35868821304371795</v>
       </c>
       <c r="D17" s="32">
-        <v>0.80278933614892101</v>
+        <v>0.8994588074914559</v>
       </c>
       <c r="E17" s="32">
-        <v>0.28554699414422186</v>
+        <v>0.44408644649819801</v>
       </c>
       <c r="F17" s="29">
         <f>AVERAGE(Quantity!E30,Quantity!E37)/1000000</f>
@@ -9762,21 +9762,21 @@
         <v>76.951695427298546</v>
       </c>
     </row>
-    <row r="18" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
         <v>15</v>
       </c>
       <c r="B18" s="31">
-        <v>0.27860299015631784</v>
+        <v>0.57493113760549519</v>
       </c>
       <c r="C18" s="31">
         <v>0.7170224358987628</v>
       </c>
       <c r="D18" s="31">
-        <v>0.3103201381157214</v>
+        <v>0.52124138221184491</v>
       </c>
       <c r="E18" s="31">
-        <v>0.30222999341995721</v>
+        <v>0.32366686408399181</v>
       </c>
       <c r="F18" s="29">
         <f>AVERAGE(Quantity!E6,Quantity!E34)/1000000</f>
@@ -9867,21 +9867,21 @@
         <v>1503826.5625</v>
       </c>
     </row>
-    <row r="19" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
         <v>14</v>
       </c>
       <c r="B19" s="31">
-        <v>0.61088937618712702</v>
+        <v>0.72892340846341419</v>
       </c>
       <c r="C19" s="31">
         <v>0.53475690724585112</v>
       </c>
       <c r="D19" s="31">
-        <v>0.56611494870064494</v>
+        <v>0.64180008107440389</v>
       </c>
       <c r="E19" s="31">
-        <v>0.625287852155611</v>
+        <v>0.58890402791146679</v>
       </c>
       <c r="F19" s="29">
         <f>AVERAGE(Quantity!E7,Quantity!E41)/1000000</f>
@@ -9972,21 +9972,21 @@
         <v>3648046.25</v>
       </c>
     </row>
-    <row r="20" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
         <v>7</v>
       </c>
       <c r="B20" s="31">
-        <v>0.40553191266876892</v>
+        <v>0.51741287250401091</v>
       </c>
       <c r="C20" s="32">
         <v>0.33206981154693316</v>
       </c>
       <c r="D20" s="32">
-        <v>0.95646697090654287</v>
+        <v>0.96679154920401489</v>
       </c>
       <c r="E20" s="32">
-        <v>6.5574915630345204E-2</v>
+        <v>0.20375294283949852</v>
       </c>
       <c r="F20" s="29">
         <f>AVERAGE(Quantity!E31)/1000000</f>
@@ -10077,168 +10077,168 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A23" s="26"/>
       <c r="B23" s="26"/>
       <c r="C23" s="26"/>
       <c r="D23" s="26"/>
       <c r="E23" s="26"/>
     </row>
-    <row r="24" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A24" s="26"/>
       <c r="B24" s="26"/>
       <c r="C24" s="26"/>
       <c r="D24" s="26"/>
       <c r="E24" s="26"/>
     </row>
-    <row r="25" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A25" s="26"/>
       <c r="B25" s="26"/>
       <c r="C25" s="26"/>
       <c r="D25" s="26"/>
       <c r="E25" s="26"/>
     </row>
-    <row r="26" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A26" s="26"/>
       <c r="B26" s="26"/>
       <c r="C26" s="26"/>
       <c r="D26" s="26"/>
       <c r="E26" s="26"/>
     </row>
-    <row r="27" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A27" s="26"/>
       <c r="B27" s="26"/>
       <c r="C27" s="26"/>
       <c r="D27" s="26"/>
       <c r="E27" s="26"/>
     </row>
-    <row r="28" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A28" s="26"/>
       <c r="B28" s="26"/>
       <c r="C28" s="26"/>
       <c r="D28" s="26"/>
       <c r="E28" s="26"/>
     </row>
-    <row r="29" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A29" s="26"/>
       <c r="B29" s="26"/>
       <c r="C29" s="26"/>
       <c r="D29" s="26"/>
       <c r="E29" s="26"/>
     </row>
-    <row r="30" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A30" s="26"/>
       <c r="B30" s="26"/>
       <c r="C30" s="26"/>
       <c r="D30" s="26"/>
       <c r="E30" s="26"/>
     </row>
-    <row r="31" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A31" s="26"/>
       <c r="B31" s="26"/>
       <c r="C31" s="26"/>
       <c r="D31" s="26"/>
       <c r="E31" s="26"/>
     </row>
-    <row r="32" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A32" s="27"/>
       <c r="B32" s="27"/>
       <c r="C32" s="27"/>
       <c r="D32" s="27"/>
       <c r="E32" s="27"/>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="27"/>
       <c r="B33" s="27"/>
       <c r="C33" s="27"/>
       <c r="D33" s="27"/>
       <c r="E33" s="27"/>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="26"/>
       <c r="B34" s="26"/>
       <c r="C34" s="26"/>
       <c r="D34" s="26"/>
       <c r="E34" s="26"/>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="26"/>
       <c r="B35" s="26"/>
       <c r="C35" s="26"/>
       <c r="D35" s="26"/>
       <c r="E35" s="26"/>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="26"/>
       <c r="B36" s="26"/>
       <c r="C36" s="26"/>
       <c r="D36" s="26"/>
       <c r="E36" s="26"/>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="27"/>
       <c r="B37" s="27"/>
       <c r="C37" s="27"/>
       <c r="D37" s="27"/>
       <c r="E37" s="27"/>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="27"/>
       <c r="B38" s="27"/>
       <c r="C38" s="27"/>
       <c r="D38" s="27"/>
       <c r="E38" s="27"/>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="27"/>
       <c r="B39" s="27"/>
       <c r="C39" s="27"/>
       <c r="D39" s="27"/>
       <c r="E39" s="27"/>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="26"/>
       <c r="B40" s="26"/>
       <c r="C40" s="26"/>
       <c r="D40" s="26"/>
       <c r="E40" s="26"/>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="26"/>
       <c r="B41" s="26"/>
       <c r="C41" s="26"/>
       <c r="D41" s="26"/>
       <c r="E41" s="26"/>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="26"/>
       <c r="B42" s="26"/>
       <c r="C42" s="26"/>
       <c r="D42" s="26"/>
       <c r="E42" s="26"/>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="26"/>
       <c r="B43" s="26"/>
       <c r="C43" s="26"/>
       <c r="D43" s="26"/>
       <c r="E43" s="26"/>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="26"/>
       <c r="B44" s="26"/>
       <c r="C44" s="26"/>
       <c r="D44" s="26"/>
       <c r="E44" s="26"/>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="26"/>
       <c r="B45" s="26"/>
       <c r="C45" s="26"/>
       <c r="D45" s="26"/>
       <c r="E45" s="26"/>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="26"/>
       <c r="B46" s="26"/>
       <c r="C46" s="26"/>
@@ -10271,17 +10271,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E942ED7D-3D70-4062-B69E-2AC81A6A5983}">
   <dimension ref="A1:Q38"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="Q38" sqref="Q38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.25" bestFit="1" customWidth="1"/>
-    <col min="2" max="17" width="7.625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="17" width="7.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="44" t="s">
         <v>23</v>
       </c>
@@ -10310,7 +10310,7 @@
       <c r="P1" s="50"/>
       <c r="Q1" s="51"/>
     </row>
-    <row r="2" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="45"/>
       <c r="B2" s="33" t="s">
         <v>82</v>
@@ -10361,21 +10361,21 @@
         <v>85</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>64</v>
       </c>
       <c r="B3" s="23">
-        <v>0.414916326050074</v>
+        <v>0.48535794059873633</v>
       </c>
       <c r="C3" s="23">
-        <v>0.50987616392943369</v>
+        <v>0.59292432713699939</v>
       </c>
       <c r="D3" s="23">
-        <v>0.56964969435401491</v>
+        <v>0.66124811713407738</v>
       </c>
       <c r="E3" s="23">
-        <v>0.48936319344248652</v>
+        <v>0.57906666562369213</v>
       </c>
       <c r="F3" s="23">
         <v>0.20240904068834228</v>
@@ -10390,45 +10390,45 @@
         <v>0.39798823518115861</v>
       </c>
       <c r="J3" s="23">
-        <v>0.50067881843074102</v>
+        <v>0.62187168038497065</v>
       </c>
       <c r="K3" s="23">
-        <v>0.5061872465786601</v>
+        <v>0.64689817611145506</v>
       </c>
       <c r="L3" s="23">
-        <v>0.51288902717175133</v>
+        <v>0.67685539148558471</v>
       </c>
       <c r="M3" s="23">
-        <v>0.49321173995998008</v>
+        <v>0.59879231986078274</v>
       </c>
       <c r="N3" s="23">
-        <v>0.56422672043340205</v>
+        <v>0.51944491359686162</v>
       </c>
       <c r="O3" s="23">
-        <v>0.78417502480682988</v>
+        <v>0.61661991535813698</v>
       </c>
       <c r="P3" s="23">
-        <v>0.90210408777281714</v>
+        <v>0.65182849167276102</v>
       </c>
       <c r="Q3" s="23">
-        <v>0.54899067554089231</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
+        <v>0.50965004912838474</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>65</v>
       </c>
       <c r="B4" s="23">
-        <v>0.52102793472086217</v>
+        <v>0.68281989047289315</v>
       </c>
       <c r="C4" s="23">
-        <v>0.53610460453283981</v>
+        <v>0.69331057405240759</v>
       </c>
       <c r="D4" s="23">
-        <v>0.47332492139350979</v>
+        <v>0.61504600777557039</v>
       </c>
       <c r="E4" s="23">
-        <v>0.43660843511684438</v>
+        <v>0.5624877839079514</v>
       </c>
       <c r="F4" s="23">
         <v>0.70403335206220252</v>
@@ -10443,45 +10443,45 @@
         <v>0.48959610583184565</v>
       </c>
       <c r="J4" s="23">
-        <v>0.3602785606574499</v>
+        <v>0.47093566873103809</v>
       </c>
       <c r="K4" s="23">
-        <v>0.36248720474477852</v>
+        <v>0.48592745441067742</v>
       </c>
       <c r="L4" s="23">
-        <v>0.36644120705594002</v>
+        <v>0.5066520830766269</v>
       </c>
       <c r="M4" s="23">
-        <v>0.35846909471368837</v>
+        <v>0.46719802504820346</v>
       </c>
       <c r="N4" s="23">
-        <v>0.57161575637190931</v>
+        <v>0.54775860578888746</v>
       </c>
       <c r="O4" s="23">
-        <v>0.74300332706663663</v>
+        <v>0.63847552987814549</v>
       </c>
       <c r="P4" s="23">
-        <v>0.80527780308566022</v>
+        <v>0.6600161011675596</v>
       </c>
       <c r="Q4" s="23">
-        <v>0.57158084234682471</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+        <v>0.5484520004814587</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>66</v>
       </c>
       <c r="B5" s="23">
-        <v>0.54971394944855989</v>
+        <v>0.70523006501623142</v>
       </c>
       <c r="C5" s="23">
-        <v>0.5469968935824111</v>
+        <v>0.67574222005701168</v>
       </c>
       <c r="D5" s="23">
-        <v>0.64151717827080823</v>
+        <v>0.74035337243685129</v>
       </c>
       <c r="E5" s="23">
-        <v>0.54041720452069786</v>
+        <v>0.66026253390762502</v>
       </c>
       <c r="F5" s="23">
         <v>0.50169077765376591</v>
@@ -10496,45 +10496,45 @@
         <v>0.43658499103830212</v>
       </c>
       <c r="J5" s="23">
-        <v>0.67585436526679743</v>
+        <v>0.76276855174580149</v>
       </c>
       <c r="K5" s="23">
-        <v>0.67973683750593561</v>
+        <v>0.79148135688355392</v>
       </c>
       <c r="L5" s="23">
-        <v>0.68435578525728968</v>
+        <v>0.81278645347983647</v>
       </c>
       <c r="M5" s="23">
-        <v>0.67444873247118409</v>
+        <v>0.76004175701014332</v>
       </c>
       <c r="N5" s="23">
-        <v>0.5250170899718708</v>
+        <v>0.50049601610421135</v>
       </c>
       <c r="O5" s="23">
-        <v>0.63219798926332482</v>
+        <v>0.54295236055591301</v>
       </c>
       <c r="P5" s="23">
-        <v>0.77587530849073871</v>
+        <v>0.62112215723557962</v>
       </c>
       <c r="Q5" s="23">
-        <v>0.52486251324616717</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+        <v>0.50187317514876928</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>24</v>
       </c>
       <c r="B6" s="23">
-        <v>0.47797978795878976</v>
+        <v>0.54028866453255242</v>
       </c>
       <c r="C6" s="23">
-        <v>0.49855936658234512</v>
+        <v>0.5458521039476949</v>
       </c>
       <c r="D6" s="23">
-        <v>0.61158965238450991</v>
+        <v>0.65432167460406176</v>
       </c>
       <c r="E6" s="23">
-        <v>0.56538496661618032</v>
+        <v>0.64116428570083261</v>
       </c>
       <c r="F6" s="23">
         <v>5.7011874239925091E-2</v>
@@ -10549,45 +10549,45 @@
         <v>0.27348571709245034</v>
       </c>
       <c r="J6" s="23">
-        <v>0.58116033008958323</v>
+        <v>0.72445604738359348</v>
       </c>
       <c r="K6" s="23">
-        <v>0.58828036986715504</v>
+        <v>0.75182048492563602</v>
       </c>
       <c r="L6" s="23">
-        <v>0.5935526429045217</v>
+        <v>0.77768221105481361</v>
       </c>
       <c r="M6" s="23">
-        <v>0.5756206844939159</v>
+        <v>0.71619071447647531</v>
       </c>
       <c r="N6" s="23">
-        <v>0.72673668413518067</v>
+        <v>0.64237256350317129</v>
       </c>
       <c r="O6" s="23">
-        <v>0.89883242841368993</v>
+        <v>0.65691479825011923</v>
       </c>
       <c r="P6" s="23">
-        <v>0.97486171248953146</v>
+        <v>0.64441338438280116</v>
       </c>
       <c r="Q6" s="23">
-        <v>0.72560098219032565</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+        <v>0.64435693947019901</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>33</v>
       </c>
       <c r="B7" s="23">
-        <v>0.47701654053766507</v>
+        <v>0.64348832745984241</v>
       </c>
       <c r="C7" s="23">
-        <v>0.58928940880036573</v>
+        <v>0.70747049614070878</v>
       </c>
       <c r="D7" s="23">
-        <v>0.70167837991126492</v>
+        <v>0.79184969659457216</v>
       </c>
       <c r="E7" s="23">
-        <v>0.53719826157916639</v>
+        <v>0.70513794416709596</v>
       </c>
       <c r="F7" s="23">
         <v>0.46132949710172572</v>
@@ -10602,45 +10602,45 @@
         <v>0.57466206532138531</v>
       </c>
       <c r="J7" s="23">
-        <v>0.6380862373138525</v>
+        <v>0.72180567919958027</v>
       </c>
       <c r="K7" s="23">
-        <v>0.64444554549350908</v>
+        <v>0.75535840424561407</v>
       </c>
       <c r="L7" s="23">
-        <v>0.64846891527775563</v>
+        <v>0.78179354764066766</v>
       </c>
       <c r="M7" s="23">
-        <v>0.63622428149059151</v>
+        <v>0.71784860769163272</v>
       </c>
       <c r="N7" s="23">
-        <v>0.56191567073795656</v>
+        <v>0.49517061509188354</v>
       </c>
       <c r="O7" s="23">
-        <v>0.73000480937861711</v>
+        <v>0.56888060488746717</v>
       </c>
       <c r="P7" s="23">
-        <v>0.86386535945992693</v>
+        <v>0.61942608173907532</v>
       </c>
       <c r="Q7" s="23">
-        <v>0.56163272603237657</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+        <v>0.49669176469427828</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>26</v>
       </c>
       <c r="B8" s="23">
-        <v>0.63752951896386867</v>
+        <v>0.71818479658463086</v>
       </c>
       <c r="C8" s="23">
-        <v>0.66300641315094599</v>
+        <v>0.7051703063478334</v>
       </c>
       <c r="D8" s="23">
-        <v>0.72810079637814262</v>
+        <v>0.76898421009876672</v>
       </c>
       <c r="E8" s="23">
-        <v>0.63254252367722863</v>
+        <v>0.68222808959483494</v>
       </c>
       <c r="F8" s="23">
         <v>0.42360010390950137</v>
@@ -10655,45 +10655,45 @@
         <v>0.38786450836194214</v>
       </c>
       <c r="J8" s="23">
-        <v>0.71917532538184703</v>
+        <v>0.77376685273312773</v>
       </c>
       <c r="K8" s="23">
-        <v>0.72309875631753273</v>
+        <v>0.79016066926610495</v>
       </c>
       <c r="L8" s="23">
-        <v>0.73139900987558271</v>
+        <v>0.81071265911295864</v>
       </c>
       <c r="M8" s="23">
-        <v>0.71366761228411557</v>
+        <v>0.75408795216089508</v>
       </c>
       <c r="N8" s="23">
-        <v>0.61639354893165144</v>
+        <v>0.57195312906593476</v>
       </c>
       <c r="O8" s="23">
-        <v>0.75527369174015035</v>
+        <v>0.65046416631389858</v>
       </c>
       <c r="P8" s="23">
-        <v>0.85440051376077075</v>
+        <v>0.71778942970817183</v>
       </c>
       <c r="Q8" s="23">
-        <v>0.61534802308578485</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+        <v>0.57239584394565757</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>67</v>
       </c>
       <c r="B9" s="23">
-        <v>0.71638500896640422</v>
+        <v>0.76416564792235531</v>
       </c>
       <c r="C9" s="23">
-        <v>0.75571336931101663</v>
+        <v>0.7578666746601973</v>
       </c>
       <c r="D9" s="23">
-        <v>0.74571310067086716</v>
+        <v>0.77143656806869532</v>
       </c>
       <c r="E9" s="23">
-        <v>0.70900732731283156</v>
+        <v>0.72417667960542442</v>
       </c>
       <c r="F9" s="23">
         <v>0.4557688691767926</v>
@@ -10708,45 +10708,45 @@
         <v>0.40014461369906262</v>
       </c>
       <c r="J9" s="23">
-        <v>0.72769505793050882</v>
+        <v>0.7758745936519541</v>
       </c>
       <c r="K9" s="23">
-        <v>0.73040610257669414</v>
+        <v>0.78725007064998442</v>
       </c>
       <c r="L9" s="23">
-        <v>0.73723064614740808</v>
+        <v>0.8093848246697547</v>
       </c>
       <c r="M9" s="23">
-        <v>0.72382200350555304</v>
+        <v>0.76957045533387358</v>
       </c>
       <c r="N9" s="23">
-        <v>0.56965114298166275</v>
+        <v>0.5923746079850345</v>
       </c>
       <c r="O9" s="23">
-        <v>0.74888328616304045</v>
+        <v>0.69258341328749595</v>
       </c>
       <c r="P9" s="23">
-        <v>0.88110739150198936</v>
+        <v>0.74002786106177676</v>
       </c>
       <c r="Q9" s="23">
-        <v>0.57074134715344083</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+        <v>0.59561946967902701</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>28</v>
       </c>
       <c r="B10" s="23">
-        <v>0.32326126824208123</v>
+        <v>0.49135801928519413</v>
       </c>
       <c r="C10" s="23">
-        <v>0.3917249018376126</v>
+        <v>0.54769171007767514</v>
       </c>
       <c r="D10" s="23">
-        <v>0.46685373263374175</v>
+        <v>0.64217666926975547</v>
       </c>
       <c r="E10" s="23">
-        <v>0.39271038158386101</v>
+        <v>0.62805731765576578</v>
       </c>
       <c r="F10" s="23">
         <v>0.34926059104522317</v>
@@ -10761,45 +10761,45 @@
         <v>0.6080024215211739</v>
       </c>
       <c r="J10" s="23">
-        <v>0.41566178607560916</v>
+        <v>0.59675502429495053</v>
       </c>
       <c r="K10" s="23">
-        <v>0.4179503061879305</v>
+        <v>0.60761692274786994</v>
       </c>
       <c r="L10" s="23">
-        <v>0.42184392107577551</v>
+        <v>0.63074034275936064</v>
       </c>
       <c r="M10" s="23">
-        <v>0.41231899526225452</v>
+        <v>0.58835747202645983</v>
       </c>
       <c r="N10" s="23">
-        <v>0.44165432160370882</v>
+        <v>0.42105867928545776</v>
       </c>
       <c r="O10" s="23">
-        <v>0.62943108369872736</v>
+        <v>0.53317136604222715</v>
       </c>
       <c r="P10" s="23">
-        <v>0.7609528283139958</v>
+        <v>0.59301413876267994</v>
       </c>
       <c r="Q10" s="23">
-        <v>0.44174796425746043</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+        <v>0.42285508092155899</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>9</v>
       </c>
       <c r="B11" s="24">
-        <v>0.75029244239794979</v>
+        <v>0.79660682246772707</v>
       </c>
       <c r="C11" s="24">
-        <v>0.6679365994757126</v>
+        <v>0.74904599690911733</v>
       </c>
       <c r="D11" s="24">
-        <v>0.63270888346532062</v>
+        <v>0.76672451835644828</v>
       </c>
       <c r="E11" s="24">
-        <v>0.73699577253492277</v>
+        <v>0.77339833708348693</v>
       </c>
       <c r="F11" s="24">
         <v>0.49970278761377579</v>
@@ -10814,45 +10814,45 @@
         <v>0.46299853104049715</v>
       </c>
       <c r="J11" s="24">
-        <v>0.44510409507309517</v>
+        <v>0.56505397484946651</v>
       </c>
       <c r="K11" s="24">
-        <v>0.44885836955693048</v>
+        <v>0.60089543198617446</v>
       </c>
       <c r="L11" s="24">
-        <v>0.45548080729554863</v>
+        <v>0.64389672178135027</v>
       </c>
       <c r="M11" s="24">
-        <v>0.44275572633807692</v>
+        <v>0.55526028809016015</v>
       </c>
       <c r="N11" s="24">
-        <v>0.91384288649006762</v>
+        <v>0.77967926011153199</v>
       </c>
       <c r="O11" s="24">
-        <v>0.97194478179497534</v>
+        <v>0.77901565668025485</v>
       </c>
       <c r="P11" s="24">
-        <v>0.98805415932373919</v>
+        <v>0.7641673660270849</v>
       </c>
       <c r="Q11" s="24">
-        <v>0.91370642601676599</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+        <v>0.78119317715316605</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>29</v>
       </c>
       <c r="B12" s="23">
-        <v>0.40193136662085738</v>
+        <v>0.48921710885962405</v>
       </c>
       <c r="C12" s="23">
-        <v>0.45278643981907035</v>
+        <v>0.54001833107465036</v>
       </c>
       <c r="D12" s="23">
-        <v>0.43598548765724199</v>
+        <v>0.53821950147142794</v>
       </c>
       <c r="E12" s="23">
-        <v>0.39813731229394345</v>
+        <v>0.46168128674956871</v>
       </c>
       <c r="F12" s="23">
         <v>0.36357867482902428</v>
@@ -10867,45 +10867,45 @@
         <v>0.32868707456665258</v>
       </c>
       <c r="J12" s="23">
-        <v>0.42219682859313074</v>
+        <v>0.51136793877231623</v>
       </c>
       <c r="K12" s="23">
-        <v>0.4254589861435607</v>
+        <v>0.52718843970090656</v>
       </c>
       <c r="L12" s="23">
-        <v>0.43175951502944487</v>
+        <v>0.55098843027866529</v>
       </c>
       <c r="M12" s="23">
-        <v>0.41777340337511065</v>
+        <v>0.49942728968253131</v>
       </c>
       <c r="N12" s="23">
-        <v>0.52847229029932974</v>
+        <v>0.49349337879237426</v>
       </c>
       <c r="O12" s="23">
-        <v>0.75771469631456134</v>
+        <v>0.61206063104684671</v>
       </c>
       <c r="P12" s="23">
-        <v>0.811975571875586</v>
+        <v>0.62162683067610502</v>
       </c>
       <c r="Q12" s="23">
-        <v>0.53035825613502163</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+        <v>0.49579835866436583</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>16</v>
       </c>
       <c r="B13" s="23">
-        <v>0.79713493025123949</v>
+        <v>0.7677288865172639</v>
       </c>
       <c r="C13" s="23">
-        <v>0.73311109309318678</v>
+        <v>0.76746248099546777</v>
       </c>
       <c r="D13" s="23">
-        <v>0.68879715718520085</v>
+        <v>0.79454079223967244</v>
       </c>
       <c r="E13" s="23">
-        <v>0.79281963303869873</v>
+        <v>0.77936675362091923</v>
       </c>
       <c r="F13" s="23">
         <v>0.81996646126157713</v>
@@ -10920,45 +10920,45 @@
         <v>0.82574883583409286</v>
       </c>
       <c r="J13" s="23">
-        <v>0.24035297225776295</v>
+        <v>0.3570265373310364</v>
       </c>
       <c r="K13" s="23">
-        <v>0.24105335273977133</v>
+        <v>0.37565451985707848</v>
       </c>
       <c r="L13" s="23">
-        <v>0.24352876276258742</v>
+        <v>0.41075439476395254</v>
       </c>
       <c r="M13" s="23">
-        <v>0.23947937494550975</v>
+        <v>0.35484083980043629</v>
       </c>
       <c r="N13" s="23">
-        <v>0.99009773452734251</v>
+        <v>0.73945017895842846</v>
       </c>
       <c r="O13" s="23">
-        <v>0.99652868497730429</v>
+        <v>0.72270415488418971</v>
       </c>
       <c r="P13" s="23">
-        <v>0.9981423074730067</v>
+        <v>0.7264791733478374</v>
       </c>
       <c r="Q13" s="23">
-        <v>0.99007016624843203</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+        <v>0.7412853739149271</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>68</v>
       </c>
       <c r="B14" s="23">
-        <v>0.59541918645640435</v>
+        <v>0.66319728029350755</v>
       </c>
       <c r="C14" s="23">
-        <v>0.5944489555191067</v>
+        <v>0.63221460259198092</v>
       </c>
       <c r="D14" s="23">
-        <v>0.65480014863334923</v>
+        <v>0.67871481938329148</v>
       </c>
       <c r="E14" s="23">
-        <v>0.58286165378845278</v>
+        <v>0.60852156214850739</v>
       </c>
       <c r="F14" s="23">
         <v>0.49870556939597921</v>
@@ -10973,45 +10973,45 @@
         <v>0.43147778565804651</v>
       </c>
       <c r="J14" s="23">
-        <v>0.66279710027981076</v>
+        <v>0.67736079164346286</v>
       </c>
       <c r="K14" s="23">
-        <v>0.66630186644705713</v>
+        <v>0.70646401377903312</v>
       </c>
       <c r="L14" s="23">
-        <v>0.67108686385496841</v>
+        <v>0.7307601113915172</v>
       </c>
       <c r="M14" s="23">
-        <v>0.66117642025419021</v>
+        <v>0.67404795076261648</v>
       </c>
       <c r="N14" s="23">
-        <v>0.5825101033777752</v>
+        <v>0.52497883170951976</v>
       </c>
       <c r="O14" s="23">
-        <v>0.72005723418890755</v>
+        <v>0.60352052956133662</v>
       </c>
       <c r="P14" s="23">
-        <v>0.83900511147959445</v>
+        <v>0.65011768756451294</v>
       </c>
       <c r="Q14" s="23">
-        <v>0.58211743798008575</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+        <v>0.52576553451981967</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>30</v>
       </c>
       <c r="B15" s="23">
-        <v>0.76055364794162139</v>
+        <v>0.86075695487722803</v>
       </c>
       <c r="C15" s="23">
-        <v>0.82439897635434944</v>
+        <v>0.86392858072313372</v>
       </c>
       <c r="D15" s="23">
-        <v>0.84213840048567334</v>
+        <v>0.87230184170219405</v>
       </c>
       <c r="E15" s="23">
-        <v>0.75558297020334408</v>
+        <v>0.84149376012308919</v>
       </c>
       <c r="F15" s="23">
         <v>0.6838896750418807</v>
@@ -11026,31 +11026,31 @@
         <v>0.63425409853775072</v>
       </c>
       <c r="J15" s="23">
-        <v>0.75482294760580981</v>
+        <v>0.71601123812956924</v>
       </c>
       <c r="K15" s="23">
-        <v>0.75420140979356309</v>
+        <v>0.71355162368196789</v>
       </c>
       <c r="L15" s="23">
-        <v>0.7575235212540089</v>
+        <v>0.73036230708312289</v>
       </c>
       <c r="M15" s="23">
-        <v>0.75240082827869603</v>
+        <v>0.71576906688516451</v>
       </c>
       <c r="N15" s="23">
-        <v>0.67549471521855287</v>
+        <v>0.65459730419711948</v>
       </c>
       <c r="O15" s="23">
-        <v>0.8285478826347743</v>
+        <v>0.73382993162481147</v>
       </c>
       <c r="P15" s="23">
-        <v>0.88347999205425076</v>
+        <v>0.75078128983746517</v>
       </c>
       <c r="Q15" s="23">
-        <v>0.67512724076437414</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.2">
+        <v>0.65567504371382967</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19" s="44" t="s">
         <v>75</v>
       </c>
@@ -11079,7 +11079,7 @@
       <c r="P19" s="50"/>
       <c r="Q19" s="51"/>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20" s="45"/>
       <c r="B20" s="33" t="s">
         <v>82</v>
@@ -11130,21 +11130,21 @@
         <v>85</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
         <v>12</v>
       </c>
       <c r="B21" s="23">
-        <v>0.44816439285794496</v>
+        <v>0.49769461598032522</v>
       </c>
       <c r="C21" s="23">
-        <v>0.50380727400151393</v>
+        <v>0.53212866083251398</v>
       </c>
       <c r="D21" s="23">
-        <v>0.61339067993404506</v>
+        <v>0.6199053616041168</v>
       </c>
       <c r="E21" s="23">
-        <v>0.52292495593916266</v>
+        <v>0.58221417309866852</v>
       </c>
       <c r="F21" s="23">
         <v>5.1420173988599931E-2</v>
@@ -11159,45 +11159,45 @@
         <v>0.22884295223254011</v>
       </c>
       <c r="J21" s="23">
-        <v>0.66098744550186428</v>
+        <v>0.75597996568049419</v>
       </c>
       <c r="K21" s="23">
-        <v>0.66889505984283038</v>
+        <v>0.78277036187353799</v>
       </c>
       <c r="L21" s="23">
-        <v>0.67369976583692615</v>
+        <v>0.80130441241716932</v>
       </c>
       <c r="M21" s="23">
-        <v>0.65505925219232886</v>
+        <v>0.74752116940439539</v>
       </c>
       <c r="N21" s="23">
-        <v>0.62615757266854866</v>
+        <v>0.5696503689166228</v>
       </c>
       <c r="O21" s="23">
-        <v>0.8174260883779042</v>
+        <v>0.61918831141669073</v>
       </c>
       <c r="P21" s="23">
-        <v>0.94193241494691204</v>
+        <v>0.63831679915684558</v>
       </c>
       <c r="Q21" s="23">
-        <v>0.62466632961442248</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.2">
+        <v>0.57090733142525829</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
         <v>10</v>
       </c>
       <c r="B22" s="23">
-        <v>0.48968879780500785</v>
+        <v>0.64425868988691593</v>
       </c>
       <c r="C22" s="23">
-        <v>0.71288585268739124</v>
+        <v>0.68753869470690199</v>
       </c>
       <c r="D22" s="23">
-        <v>0.79300592878240972</v>
+        <v>0.75350670865887315</v>
       </c>
       <c r="E22" s="23">
-        <v>0.4799080334532011</v>
+        <v>0.59273788052948739</v>
       </c>
       <c r="F22" s="23">
         <v>0.39864790561898683</v>
@@ -11212,45 +11212,45 @@
         <v>0.34051063863127851</v>
       </c>
       <c r="J22" s="23">
-        <v>0.98814134093768879</v>
+        <v>0.99065807453339161</v>
       </c>
       <c r="K22" s="23">
-        <v>0.98845344897135512</v>
+        <v>0.99187518075875003</v>
       </c>
       <c r="L22" s="23">
-        <v>0.98883857992050861</v>
+        <v>0.99338445618012006</v>
       </c>
       <c r="M22" s="23">
-        <v>0.98789726983357318</v>
+        <v>0.98758424453734184</v>
       </c>
       <c r="N22" s="23">
-        <v>0.15445921467666465</v>
+        <v>0.38287808758930014</v>
       </c>
       <c r="O22" s="23">
-        <v>0.38566017991384738</v>
+        <v>0.49678655775955932</v>
       </c>
       <c r="P22" s="23">
-        <v>0.64288501908120144</v>
+        <v>0.58219498044180229</v>
       </c>
       <c r="Q22" s="23">
-        <v>0.1552647731965153</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.2">
+        <v>0.38614074981625368</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
         <v>31</v>
       </c>
       <c r="B23" s="23">
-        <v>0.71690473763126428</v>
+        <v>0.78216120109617737</v>
       </c>
       <c r="C23" s="23">
-        <v>0.66534485538394372</v>
+        <v>0.77349737524476792</v>
       </c>
       <c r="D23" s="23">
-        <v>0.65262736065727966</v>
+        <v>0.82070015132764329</v>
       </c>
       <c r="E23" s="23">
-        <v>0.69657522579976294</v>
+        <v>0.74512769053334638</v>
       </c>
       <c r="F23" s="23">
         <v>0.42659387623959671</v>
@@ -11265,45 +11265,45 @@
         <v>0.36919825152140179</v>
       </c>
       <c r="J23" s="23">
-        <v>0.52011850680268712</v>
+        <v>0.77303213864205433</v>
       </c>
       <c r="K23" s="23">
-        <v>0.52410813851141902</v>
+        <v>0.79800339517333441</v>
       </c>
       <c r="L23" s="23">
-        <v>0.52782645697657038</v>
+        <v>0.80466334497236702</v>
       </c>
       <c r="M23" s="23">
-        <v>0.51945701727484683</v>
+        <v>0.77455401056340933</v>
       </c>
       <c r="N23" s="23">
-        <v>0.44247267307954696</v>
+        <v>0.64432715546466768</v>
       </c>
       <c r="O23" s="23">
-        <v>0.69531294201118166</v>
+        <v>0.75330482087862938</v>
       </c>
       <c r="P23" s="23">
-        <v>0.9035165438578604</v>
+        <v>0.84469026101225331</v>
       </c>
       <c r="Q23" s="23">
-        <v>0.44195854508038052</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.2">
+        <v>0.64635040480498007</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B24" s="23">
-        <v>0.7104874851594577</v>
+        <v>0.72307840214266739</v>
       </c>
       <c r="C24" s="23">
-        <v>0.76697346528833887</v>
+        <v>0.72067886865741682</v>
       </c>
       <c r="D24" s="23">
-        <v>0.7612660263160993</v>
+        <v>0.70879165864738469</v>
       </c>
       <c r="E24" s="23">
-        <v>0.70876338687327101</v>
+        <v>0.6697315924828251</v>
       </c>
       <c r="F24" s="23">
         <v>0.40050027951412953</v>
@@ -11318,45 +11318,45 @@
         <v>0.33620475412007167</v>
       </c>
       <c r="J24" s="23">
-        <v>0.79856093871970857</v>
+        <v>0.82888405922489961</v>
       </c>
       <c r="K24" s="23">
-        <v>0.80383762347680399</v>
+        <v>0.83749456952307655</v>
       </c>
       <c r="L24" s="23">
-        <v>0.81257554928741338</v>
+        <v>0.86354334276611633</v>
       </c>
       <c r="M24" s="23">
-        <v>0.79083871381145443</v>
+        <v>0.81535667949402579</v>
       </c>
       <c r="N24" s="23">
-        <v>0.55395556071780605</v>
+        <v>0.50135325063373615</v>
       </c>
       <c r="O24" s="23">
-        <v>0.68737790071311744</v>
+        <v>0.57479203101297605</v>
       </c>
       <c r="P24" s="23">
-        <v>0.83423075359246401</v>
+        <v>0.61817072245089977</v>
       </c>
       <c r="Q24" s="23">
-        <v>0.55494704344977575</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.2">
+        <v>0.51119538093659789</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
         <v>2</v>
       </c>
       <c r="B25" s="23">
-        <v>0.73865376512612202</v>
+        <v>0.75608578607286925</v>
       </c>
       <c r="C25" s="23">
-        <v>0.69750371109290343</v>
+        <v>0.74066004651764694</v>
       </c>
       <c r="D25" s="23">
-        <v>0.68869152223358576</v>
+        <v>0.76802449523466443</v>
       </c>
       <c r="E25" s="23">
-        <v>0.72881291154048256</v>
+        <v>0.73900728024894402</v>
       </c>
       <c r="F25" s="23">
         <v>0.67070651266001247</v>
@@ -11371,45 +11371,45 @@
         <v>0.63958703001255446</v>
       </c>
       <c r="J25" s="23">
-        <v>0.44181863565505031</v>
+        <v>0.50628567026728122</v>
       </c>
       <c r="K25" s="23">
-        <v>0.44385212350785946</v>
+        <v>0.53034593584194634</v>
       </c>
       <c r="L25" s="23">
-        <v>0.44759782226581812</v>
+        <v>0.56152785926279036</v>
       </c>
       <c r="M25" s="23">
-        <v>0.44046085487385511</v>
+        <v>0.50388900060111941</v>
       </c>
       <c r="N25" s="23">
-        <v>0.84186555601088442</v>
+        <v>0.68877053117730203</v>
       </c>
       <c r="O25" s="23">
-        <v>0.90423379169702534</v>
+        <v>0.71191327095844026</v>
       </c>
       <c r="P25" s="23">
-        <v>0.94429344351057198</v>
+        <v>0.72362789498444491</v>
       </c>
       <c r="Q25" s="23">
-        <v>0.84172341667226747</v>
-      </c>
-    </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.2">
+        <v>0.69021893651693156</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
         <v>27</v>
       </c>
       <c r="B26" s="23">
-        <v>0.41046790992522397</v>
+        <v>0.66315377746674098</v>
       </c>
       <c r="C26" s="23">
-        <v>0.47642778349903137</v>
+        <v>0.65421949996305595</v>
       </c>
       <c r="D26" s="23">
-        <v>0.68025277712102483</v>
+        <v>0.7635826157372142</v>
       </c>
       <c r="E26" s="23">
-        <v>0.42601503348944814</v>
+        <v>0.6408974004946506</v>
       </c>
       <c r="F26" s="23">
         <v>0.49270618169078012</v>
@@ -11424,45 +11424,45 @@
         <v>0.47315191006398744</v>
       </c>
       <c r="J26" s="23">
-        <v>0.81281361958300302</v>
+        <v>0.87611611954509949</v>
       </c>
       <c r="K26" s="23">
-        <v>0.81641460874913874</v>
+        <v>0.89135588662113052</v>
       </c>
       <c r="L26" s="23">
-        <v>0.82054318569715989</v>
+        <v>0.90504538903335996</v>
       </c>
       <c r="M26" s="23">
-        <v>0.81147173344757317</v>
+        <v>0.87279252195043211</v>
       </c>
       <c r="N26" s="23">
-        <v>0.34994631628865719</v>
+        <v>0.35707583699748274</v>
       </c>
       <c r="O26" s="23">
-        <v>0.44414687371312039</v>
+        <v>0.40579065267505454</v>
       </c>
       <c r="P26" s="23">
-        <v>0.66457257447260643</v>
+        <v>0.55048715399046799</v>
       </c>
       <c r="Q26" s="23">
-        <v>0.3498881797971819</v>
-      </c>
-    </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.2">
+        <v>0.3582921278159224</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
         <v>25</v>
       </c>
       <c r="B27" s="23">
-        <v>0.31802605779639914</v>
+        <v>0.60984037156659765</v>
       </c>
       <c r="C27" s="23">
-        <v>0.29919084631536141</v>
+        <v>0.49142703288182787</v>
       </c>
       <c r="D27" s="23">
-        <v>0.51613484905154272</v>
+        <v>0.70717577704805445</v>
       </c>
       <c r="E27" s="23">
-        <v>0.40596321714972727</v>
+        <v>0.70807451617100181</v>
       </c>
       <c r="F27" s="23">
         <v>0.52595285044774442</v>
@@ -11477,45 +11477,45 @@
         <v>0.70597364858146872</v>
       </c>
       <c r="J27" s="23">
-        <v>0.49893840057916017</v>
+        <v>0.68184748606388124</v>
       </c>
       <c r="K27" s="23">
-        <v>0.49902272785407054</v>
+        <v>0.68307870501660728</v>
       </c>
       <c r="L27" s="23">
-        <v>0.50349537376572606</v>
+        <v>0.70611720309479442</v>
       </c>
       <c r="M27" s="23">
-        <v>0.49652837805761002</v>
+        <v>0.67896355322450996</v>
       </c>
       <c r="N27" s="23">
-        <v>0.35328556964624153</v>
+        <v>0.35064182647746606</v>
       </c>
       <c r="O27" s="23">
-        <v>0.42568442466905415</v>
+        <v>0.3937364154608155</v>
       </c>
       <c r="P27" s="23">
-        <v>0.66280673214961006</v>
+        <v>0.51210277337140175</v>
       </c>
       <c r="Q27" s="23">
-        <v>0.35305628562848179</v>
-      </c>
-    </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.2">
+        <v>0.35190358944105132</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
         <v>19</v>
       </c>
       <c r="B28" s="23">
-        <v>0.3470230502138073</v>
+        <v>0.48166536111687525</v>
       </c>
       <c r="C28" s="23">
-        <v>0.38343123914003624</v>
+        <v>0.52578136051475466</v>
       </c>
       <c r="D28" s="23">
-        <v>0.31736011592995272</v>
+        <v>0.47058864897274327</v>
       </c>
       <c r="E28" s="23">
-        <v>0.28602140520951697</v>
+        <v>0.38481484026329171</v>
       </c>
       <c r="F28" s="23">
         <v>0.4658055723633418</v>
@@ -11530,45 +11530,45 @@
         <v>0.31417067335918125</v>
       </c>
       <c r="J28" s="23">
-        <v>0.28446516742476413</v>
+        <v>0.4275015154478396</v>
       </c>
       <c r="K28" s="23">
-        <v>0.28643301162005441</v>
+        <v>0.44217884610715386</v>
       </c>
       <c r="L28" s="23">
-        <v>0.28923502852720689</v>
+        <v>0.46060654502225723</v>
       </c>
       <c r="M28" s="23">
-        <v>0.2833142144924406</v>
+        <v>0.42328826195359814</v>
       </c>
       <c r="N28" s="23">
-        <v>0.49577222043595248</v>
+        <v>0.46872951757711678</v>
       </c>
       <c r="O28" s="23">
-        <v>0.76012121603920091</v>
+        <v>0.61806597994221213</v>
       </c>
       <c r="P28" s="23">
-        <v>0.8037736392861935</v>
+        <v>0.62591303482299332</v>
       </c>
       <c r="Q28" s="23">
-        <v>0.48211198277258416</v>
-      </c>
-    </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.2">
+        <v>0.45963876957449989</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
         <v>21</v>
       </c>
       <c r="B29" s="23">
-        <v>0.72320894124485657</v>
+        <v>0.72282047213984901</v>
       </c>
       <c r="C29" s="23">
-        <v>0.78268651541611378</v>
+        <v>0.77302269189174255</v>
       </c>
       <c r="D29" s="23">
-        <v>0.82134604568574943</v>
+        <v>0.80607364793545788</v>
       </c>
       <c r="E29" s="23">
-        <v>0.77797425711288692</v>
+        <v>0.7678510283823935</v>
       </c>
       <c r="F29" s="23">
         <v>0.45516364033926854</v>
@@ -11583,45 +11583,45 @@
         <v>0.54076625761173303</v>
       </c>
       <c r="J29" s="23">
-        <v>0.65949828179642522</v>
+        <v>0.63552877985131262</v>
       </c>
       <c r="K29" s="23">
-        <v>0.66643059107475888</v>
+        <v>0.65705708392277251</v>
       </c>
       <c r="L29" s="23">
-        <v>0.68228978507252458</v>
+        <v>0.69995886553060871</v>
       </c>
       <c r="M29" s="23">
-        <v>0.64797178648981046</v>
+        <v>0.60685923606839054</v>
       </c>
       <c r="N29" s="23">
-        <v>0.67282614065143931</v>
+        <v>0.60730662463764495</v>
       </c>
       <c r="O29" s="23">
-        <v>0.80303101659124076</v>
+        <v>0.62824992263080093</v>
       </c>
       <c r="P29" s="23">
-        <v>0.89321540318128811</v>
+        <v>0.65103900580909468</v>
       </c>
       <c r="Q29" s="23">
-        <v>0.68479355455727364</v>
-      </c>
-    </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.2">
+        <v>0.61400248996186058</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
         <v>5</v>
       </c>
       <c r="B30" s="23">
-        <v>0.45030032853458202</v>
+        <v>0.60474604092660578</v>
       </c>
       <c r="C30" s="23">
-        <v>0.68570764889888258</v>
+        <v>0.6870039058201749</v>
       </c>
       <c r="D30" s="23">
-        <v>0.71919806541167197</v>
+        <v>0.7437795125839235</v>
       </c>
       <c r="E30" s="23">
-        <v>0.43902366995375419</v>
+        <v>0.53590152913243583</v>
       </c>
       <c r="F30" s="23">
         <v>0.44741090019774571</v>
@@ -11636,45 +11636,45 @@
         <v>0.36321440197199711</v>
       </c>
       <c r="J30" s="23">
-        <v>0.76618698663619833</v>
+        <v>0.85641560609828193</v>
       </c>
       <c r="K30" s="23">
-        <v>0.76990496246344653</v>
+        <v>0.86917746951936226</v>
       </c>
       <c r="L30" s="23">
-        <v>0.77890492686577428</v>
+        <v>0.88530317550756266</v>
       </c>
       <c r="M30" s="23">
-        <v>0.75920255512758983</v>
+        <v>0.8506262441547322</v>
       </c>
       <c r="N30" s="23">
-        <v>0.10862484135917824</v>
+        <v>0.28914403425533125</v>
       </c>
       <c r="O30" s="23">
-        <v>0.42536943685294759</v>
+        <v>0.51738753590294007</v>
       </c>
       <c r="P30" s="23">
-        <v>0.73064856716700333</v>
+        <v>0.66160387358883255</v>
       </c>
       <c r="Q30" s="23">
-        <v>0.11184807578146047</v>
-      </c>
-    </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.2">
+        <v>0.29310444915664996</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
         <v>4</v>
       </c>
       <c r="B31" s="23">
-        <v>0.67215197979858587</v>
+        <v>0.74265034203853197</v>
       </c>
       <c r="C31" s="23">
-        <v>0.68546792394952583</v>
+        <v>0.72572312211216516</v>
       </c>
       <c r="D31" s="23">
-        <v>0.73694493429963437</v>
+        <v>0.77855585509206304</v>
       </c>
       <c r="E31" s="23">
-        <v>0.6672567865139688</v>
+        <v>0.70842810879529972</v>
       </c>
       <c r="F31" s="23">
         <v>0.43281506713275369</v>
@@ -11689,45 +11689,45 @@
         <v>0.39717650031152907</v>
       </c>
       <c r="J31" s="23">
-        <v>0.71801074721607938</v>
+        <v>0.7693512729886276</v>
       </c>
       <c r="K31" s="23">
-        <v>0.72160801392665797</v>
+        <v>0.78414912393004332</v>
       </c>
       <c r="L31" s="23">
-        <v>0.73001659052644008</v>
+        <v>0.80472493763565889</v>
       </c>
       <c r="M31" s="23">
-        <v>0.71224922196787177</v>
+        <v>0.74890188801360491</v>
       </c>
       <c r="N31" s="23">
-        <v>0.64352113620976659</v>
+        <v>0.5995149444350758</v>
       </c>
       <c r="O31" s="23">
-        <v>0.77275944983907874</v>
+        <v>0.66796735319333267</v>
       </c>
       <c r="P31" s="23">
-        <v>0.86827532200653024</v>
+        <v>0.72939159373176576</v>
       </c>
       <c r="Q31" s="23">
-        <v>0.64245770803166813</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.2">
+        <v>0.59997699583158381</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
         <v>32</v>
       </c>
       <c r="B32" s="23">
-        <v>0.72729611355745494</v>
+        <v>0.81126675015628102</v>
       </c>
       <c r="C32" s="23">
-        <v>0.74044719130524228</v>
+        <v>0.78605251782021768</v>
       </c>
       <c r="D32" s="23">
-        <v>0.76721258141434878</v>
+        <v>0.79166333032247505</v>
       </c>
       <c r="E32" s="23">
-        <v>0.7104978797775916</v>
+        <v>0.76719880592603662</v>
       </c>
       <c r="F32" s="23">
         <v>0.49720870732156747</v>
@@ -11742,45 +11742,45 @@
         <v>0.42475044113715393</v>
       </c>
       <c r="J32" s="23">
-        <v>0.75714184899437387</v>
+        <v>0.87005491244768385</v>
       </c>
       <c r="K32" s="23">
-        <v>0.76350135174985967</v>
+        <v>0.89334315806311559</v>
       </c>
       <c r="L32" s="23">
-        <v>0.76923021474552855</v>
+        <v>0.90564956804666852</v>
       </c>
       <c r="M32" s="23">
-        <v>0.75452180101105493</v>
+        <v>0.86654085389057012</v>
       </c>
       <c r="N32" s="23">
-        <v>0.59804544713736563</v>
+        <v>0.56837629118904487</v>
       </c>
       <c r="O32" s="23">
-        <v>0.79332047539695072</v>
+        <v>0.59994922585867927</v>
       </c>
       <c r="P32" s="23">
-        <v>0.91273369500957302</v>
+        <v>0.62073827331785825</v>
       </c>
       <c r="Q32" s="23">
-        <v>0.597174441287602</v>
-      </c>
-    </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.2">
+        <v>0.56971046481750298</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
         <v>11</v>
       </c>
       <c r="B33" s="23">
-        <v>0.4407043334958875</v>
+        <v>0.67452969351907877</v>
       </c>
       <c r="C33" s="23">
-        <v>0.61875318860898099</v>
+        <v>0.75289821030212378</v>
       </c>
       <c r="D33" s="23">
-        <v>0.76197138431217004</v>
+        <v>0.85024041720331744</v>
       </c>
       <c r="E33" s="23">
-        <v>0.50802679603426126</v>
+        <v>0.7555458169560102</v>
       </c>
       <c r="F33" s="23">
         <v>0.48715487723052714</v>
@@ -11795,45 +11795,45 @@
         <v>0.63421162552653421</v>
       </c>
       <c r="J33" s="23">
-        <v>0.76844857788136478</v>
+        <v>0.84290820871737882</v>
       </c>
       <c r="K33" s="23">
-        <v>0.77319503555596292</v>
+        <v>0.86698929188080165</v>
       </c>
       <c r="L33" s="23">
-        <v>0.77740255483443643</v>
+        <v>0.88941248160061959</v>
       </c>
       <c r="M33" s="23">
-        <v>0.76661871703475293</v>
+        <v>0.83971115846212319</v>
       </c>
       <c r="N33" s="23">
-        <v>0.47750456416669623</v>
+        <v>0.42593029241481395</v>
       </c>
       <c r="O33" s="23">
-        <v>0.68967480820166316</v>
+        <v>0.53118267595491353</v>
       </c>
       <c r="P33" s="23">
-        <v>0.81619009948640919</v>
+        <v>0.57750390068210666</v>
       </c>
       <c r="Q33" s="23">
-        <v>0.47742418391222052</v>
-      </c>
-    </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.2">
+        <v>0.42757146496343873</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
         <v>13</v>
       </c>
       <c r="B34" s="23">
-        <v>0.54573219088206237</v>
+        <v>0.60191863632636977</v>
       </c>
       <c r="C34" s="23">
-        <v>0.61248616233350872</v>
+        <v>0.66836272853271672</v>
       </c>
       <c r="D34" s="23">
-        <v>0.64880819533601775</v>
+        <v>0.76038586283164322</v>
       </c>
       <c r="E34" s="23">
-        <v>0.63430979704776391</v>
+        <v>0.68691528174674099</v>
       </c>
       <c r="F34" s="23">
         <v>0.30137271429353146</v>
@@ -11848,45 +11848,45 @@
         <v>0.48519512926921848</v>
       </c>
       <c r="J34" s="23">
-        <v>0.46783889575705068</v>
+        <v>0.58825245380442892</v>
       </c>
       <c r="K34" s="23">
-        <v>0.47483579764964889</v>
+        <v>0.62533599097905679</v>
       </c>
       <c r="L34" s="23">
-        <v>0.48554486270677905</v>
+        <v>0.6727716384630964</v>
       </c>
       <c r="M34" s="23">
-        <v>0.45214315075979311</v>
+        <v>0.53023399740749499</v>
       </c>
       <c r="N34" s="23">
-        <v>0.74207114367855387</v>
+        <v>0.6289887932439181</v>
       </c>
       <c r="O34" s="23">
-        <v>0.84864103263263513</v>
+        <v>0.65269644195354959</v>
       </c>
       <c r="P34" s="23">
-        <v>0.90573293207937922</v>
+        <v>0.64533428379055569</v>
       </c>
       <c r="Q34" s="23">
-        <v>0.74933552994722485</v>
-      </c>
-    </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.2">
+        <v>0.62997182982057964</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A35" s="5" t="s">
         <v>6</v>
       </c>
       <c r="B35" s="23">
-        <v>0.61756884428589587</v>
+        <v>0.71694648819807805</v>
       </c>
       <c r="C35" s="23">
-        <v>0.74037647836332654</v>
+        <v>0.74821257111131811</v>
       </c>
       <c r="D35" s="23">
-        <v>0.72953932786234643</v>
+        <v>0.72970066903699682</v>
       </c>
       <c r="E35" s="23">
-        <v>0.60193668423019209</v>
+        <v>0.65874868968846301</v>
       </c>
       <c r="F35" s="23">
         <v>0.43404437954294472</v>
@@ -11901,45 +11901,45 @@
         <v>0.35868821304371795</v>
       </c>
       <c r="J35" s="23">
-        <v>0.80378750096050489</v>
+        <v>0.89923310792353284</v>
       </c>
       <c r="K35" s="23">
-        <v>0.80537992313178142</v>
+        <v>0.90385248236337878</v>
       </c>
       <c r="L35" s="23">
-        <v>0.81035707701381088</v>
+        <v>0.9170789068048264</v>
       </c>
       <c r="M35" s="23">
-        <v>0.80278933614892101</v>
+        <v>0.8994588074914559</v>
       </c>
       <c r="N35" s="23">
-        <v>0.2828448497182367</v>
+        <v>0.44088132290664156</v>
       </c>
       <c r="O35" s="23">
-        <v>0.64229637746178292</v>
+        <v>0.58321056770956559</v>
       </c>
       <c r="P35" s="23">
-        <v>0.81410981851280373</v>
+        <v>0.60325054943514467</v>
       </c>
       <c r="Q35" s="23">
-        <v>0.28554699414422186</v>
-      </c>
-    </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.2">
+        <v>0.44408644649819801</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
         <v>15</v>
       </c>
       <c r="B36" s="23">
-        <v>0.22406839375088725</v>
+        <v>0.40786019784574196</v>
       </c>
       <c r="C36" s="23">
-        <v>0.35892648234169938</v>
+        <v>0.56672424985659131</v>
       </c>
       <c r="D36" s="23">
-        <v>0.41089354757151109</v>
+        <v>0.63993418187680084</v>
       </c>
       <c r="E36" s="23">
-        <v>0.27860299015631784</v>
+        <v>0.57493113760549519</v>
       </c>
       <c r="F36" s="23">
         <v>0.39996860855545419</v>
@@ -11954,45 +11954,45 @@
         <v>0.7170224358987628</v>
       </c>
       <c r="J36" s="23">
-        <v>0.31317540137545258</v>
+        <v>0.53175843621003449</v>
       </c>
       <c r="K36" s="23">
-        <v>0.31433734989750622</v>
+        <v>0.5411574816633612</v>
       </c>
       <c r="L36" s="23">
-        <v>0.31748828505815557</v>
+        <v>0.56450062881800434</v>
       </c>
       <c r="M36" s="23">
-        <v>0.3103201381157214</v>
+        <v>0.52124138221184491</v>
       </c>
       <c r="N36" s="23">
-        <v>0.30185506751101754</v>
+        <v>0.32144916250803113</v>
       </c>
       <c r="O36" s="23">
-        <v>0.53701682965320774</v>
+        <v>0.48550756369727432</v>
       </c>
       <c r="P36" s="23">
-        <v>0.70791993847362922</v>
+        <v>0.58573418388085174</v>
       </c>
       <c r="Q36" s="23">
-        <v>0.30222999341995721</v>
-      </c>
-    </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.2">
+        <v>0.32366686408399181</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
         <v>14</v>
       </c>
       <c r="B37" s="23">
-        <v>0.4880388451094349</v>
+        <v>0.59591558802476352</v>
       </c>
       <c r="C37" s="23">
-        <v>0.59102252190450144</v>
+        <v>0.69185469992811566</v>
       </c>
       <c r="D37" s="23">
-        <v>0.64983011292498905</v>
+        <v>0.75545344666858993</v>
       </c>
       <c r="E37" s="23">
-        <v>0.61088937618712702</v>
+        <v>0.72892340846341419</v>
       </c>
       <c r="F37" s="23">
         <v>0.3028759216998782</v>
@@ -12007,45 +12007,45 @@
         <v>0.53475690724585112</v>
       </c>
       <c r="J37" s="23">
-        <v>0.57302432150325966</v>
+        <v>0.66043759250378975</v>
       </c>
       <c r="K37" s="23">
-        <v>0.5774044752222387</v>
+        <v>0.68194504228513708</v>
       </c>
       <c r="L37" s="23">
-        <v>0.58593647707919916</v>
+        <v>0.71799418077896493</v>
       </c>
       <c r="M37" s="23">
-        <v>0.56611494870064494</v>
+        <v>0.64180008107440389</v>
       </c>
       <c r="N37" s="23">
-        <v>0.61192747149224924</v>
+        <v>0.57524986008817725</v>
       </c>
       <c r="O37" s="23">
-        <v>0.77965822472246671</v>
+        <v>0.63722992875286266</v>
       </c>
       <c r="P37" s="23">
-        <v>0.85166511636763642</v>
+        <v>0.63761019869770297</v>
       </c>
       <c r="Q37" s="23">
-        <v>0.625287852155611</v>
-      </c>
-    </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.2">
+        <v>0.58890402791146679</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A38" s="5" t="s">
         <v>7</v>
       </c>
       <c r="B38" s="23">
-        <v>0.41378744740789386</v>
+        <v>0.58869495493811563</v>
       </c>
       <c r="C38" s="23">
-        <v>0.68346404103437597</v>
+        <v>0.70170219115489441</v>
       </c>
       <c r="D38" s="23">
-        <v>0.78075967748778041</v>
+        <v>0.77712918726871416</v>
       </c>
       <c r="E38" s="23">
-        <v>0.40553191266876892</v>
+        <v>0.51741287250401091</v>
       </c>
       <c r="F38" s="23">
         <v>0.40544294182746021</v>
@@ -12060,28 +12060,28 @@
         <v>0.33206981154693316</v>
       </c>
       <c r="J38" s="23">
-        <v>0.95798695180409132</v>
+        <v>0.96729201055101688</v>
       </c>
       <c r="K38" s="23">
-        <v>0.95839498272772095</v>
+        <v>0.96431313277708897</v>
       </c>
       <c r="L38" s="23">
-        <v>0.95994493265960834</v>
+        <v>0.97236621944282986</v>
       </c>
       <c r="M38" s="23">
-        <v>0.95646697090654287</v>
+        <v>0.96679154920401489</v>
       </c>
       <c r="N38" s="23">
-        <v>6.5152284541346403E-2</v>
+        <v>0.20063738507856274</v>
       </c>
       <c r="O38" s="23">
-        <v>0.44435965182562059</v>
+        <v>0.5669114063250702</v>
       </c>
       <c r="P38" s="23">
-        <v>0.81867650953106641</v>
+        <v>0.81276475599097275</v>
       </c>
       <c r="Q38" s="23">
-        <v>6.5574915630345204E-2</v>
+        <v>0.20375294283949852</v>
       </c>
     </row>
   </sheetData>
